--- a/cw/google_search/urls.xlsx
+++ b/cw/google_search/urls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="803">
   <si>
     <t>https://lookaside.fbsbx.com/lookaside/crawler/media/?media_id=1673335646259561</t>
   </si>
@@ -2066,6 +2066,363 @@
   </si>
   <si>
     <t>https://www.nta.go.jp/about/organization/osaka/location/osaka/izumiotsu/index.htm</t>
+  </si>
+  <si>
+    <t>http://taishin-mima.net/files/2016/09/SKM_C36816092420530_0001.jpg</t>
+  </si>
+  <si>
+    <t>http://www.med.osaka-u.ac.jp/introduction/organization/centralmedicalinstitutions</t>
+  </si>
+  <si>
+    <t>https://lookaside.fbsbx.com/lookaside/crawler/media/?media_id=1057472347716094</t>
+  </si>
+  <si>
+    <t>http://www.microbes.agbi.tsukuba.ac.jp/presen/organization.html</t>
+  </si>
+  <si>
+    <t>http://www.sakai-ipc.jp/about/img/2012-organizationchart.gif</t>
+  </si>
+  <si>
+    <t>http://www.sakai-ipc.jp/about/organigram.html</t>
+  </si>
+  <si>
+    <t>http://www.yapoc.co.jp/img/organization_img01.png</t>
+  </si>
+  <si>
+    <t>http://www.yapoc.co.jp/organization.html</t>
+  </si>
+  <si>
+    <t>https://www.mishimakosan.com/common/img/company/img_organization.png</t>
+  </si>
+  <si>
+    <t>http://www.mishimakosan.com/company/organization/</t>
+  </si>
+  <si>
+    <t>http://www.takatsukirc.org/wp-content/uploads/2015/06/organization.jpg</t>
+  </si>
+  <si>
+    <t>http://www.takatsukirc.org/organization/</t>
+  </si>
+  <si>
+    <t>http://www.diecast.co.jp/img/img_organization.gif</t>
+  </si>
+  <si>
+    <t>http://www.diecast.co.jp/organization.htm</t>
+  </si>
+  <si>
+    <t>http://donichikai.com/hp_img_orga..JPG</t>
+  </si>
+  <si>
+    <t>http://donichikai.com/organization.html</t>
+  </si>
+  <si>
+    <t>https://www.ginsen-gr.co.jp/assets/img/pc/company/company_organization.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ginsen-gr.co.jp/company/organization.html</t>
+  </si>
+  <si>
+    <t>http://www.city.yao.osaka.jp/cmsfiles/contents/0000041/41222/NKN_0128.JPG</t>
+  </si>
+  <si>
+    <t>https://www.nta.go.jp/about/organization/osaka/location/osaka/sakai/index.htm</t>
+  </si>
+  <si>
+    <t>http://www.liveland.co.jp/wp-content/uploads/2016/02/IMG_9366.jpg</t>
+  </si>
+  <si>
+    <t>http://izumitagawa.com/organization/</t>
+  </si>
+  <si>
+    <t>http://www.eae.titech.ac.jp/ACEEES/achievement/organization/images/index01.jpg</t>
+  </si>
+  <si>
+    <t>https://r.gnavi.co.jp/8t0aprtm0000/</t>
+  </si>
+  <si>
+    <t>https://hokkaido-digital-entertainment.org/img/organization_img01.png</t>
+  </si>
+  <si>
+    <t>https://otakara-sensha.com/store/detail.aspx/osaka/higashiosaka/60882/0005</t>
+  </si>
+  <si>
+    <t>https://pbs.twimg.com/media/DYAwpqpU0AAjn-h.jpg</t>
+  </si>
+  <si>
+    <t>https://hokkaido-digital-entertainment.org/organization/</t>
+  </si>
+  <si>
+    <t>http://livedoor.blogimg.jp/hiratsu/imgs/b/8/b8f2ab62.jpg</t>
+  </si>
+  <si>
+    <t>http://www.izumikousan.co.jp/company/organization.html</t>
+  </si>
+  <si>
+    <t>http://www.vleague.or.jp/gallery_detail/id=1454&amp;type=&amp;search_id=&amp;season=</t>
+  </si>
+  <si>
+    <t>https://www.co-medical.com/file/image/201803/f758b5a582ec7de832e8f51772bde8b6bbd8f46b.jpg</t>
+  </si>
+  <si>
+    <t>http://machi-jikan.com/builder/wp-content/uploads/hpb-media/img/organization_chart.png</t>
+  </si>
+  <si>
+    <t>http://machi-jikan.com/%E7%B5%84%E7%B9%94%E5%9B%B3/</t>
+  </si>
+  <si>
+    <t>http://www.seiwa-sangyo-ltd.co.jp/seiwa/wp-content/themes/seiwa/images/organization_chart.jpg</t>
+  </si>
+  <si>
+    <t>http://www.seiwa-sangyo-ltd.co.jp/company/</t>
+  </si>
+  <si>
+    <t>http://hirakata-jc.jp/2016/about/images/organization.jpg</t>
+  </si>
+  <si>
+    <t>http://www.town.ibaraki-kawachi.lg.jp/page/dir000017.html</t>
+  </si>
+  <si>
+    <t>https://cdn.job-medley.com/customers/image_files/converted_3cfc7d87-f502-46a9-8a86-b3381e70bd68.PNG</t>
+  </si>
+  <si>
+    <t>http://hirakata-jc.jp/2016/about/organization.html</t>
+  </si>
+  <si>
+    <t>http://www.sakai-city-hospital.jp/mechanism/img/organization-photo.jpg</t>
+  </si>
+  <si>
+    <t>https://www.tirepit.jp/stores/detail/11939</t>
+  </si>
+  <si>
+    <t>http://www.hi-line.co.jp/%E7%B5%84%E7%B9%94%E5%9B%B3%E3%83%BB%E4%BA%8B%E6%A5%AD%E6%89%80%E4%B8%80%E8%A6%A7/</t>
+  </si>
+  <si>
+    <t>http://www.awi.co.jp/research/organization/img/organization_img_pop2.jpg</t>
+  </si>
+  <si>
+    <t>http://www.awi.co.jp/research/organization/</t>
+  </si>
+  <si>
+    <t>http://www.takatsukirc.org/wp-content/uploads/2017/07/organization.jpg</t>
+  </si>
+  <si>
+    <t>http://www.takatsukirc.org/organization2017-18/</t>
+  </si>
+  <si>
+    <t>http://www.khneochem.co.jp/company/outline/images/img_organization_01_1804.png</t>
+  </si>
+  <si>
+    <t>http://www.khneochem.co.jp/company/outline/organization.html</t>
+  </si>
+  <si>
+    <t>https://www.nta.go.jp/about/organization/osaka/location/osaka/higashiosaka/map.gif</t>
+  </si>
+  <si>
+    <t>https://page.line.me/tomiotyukan-sakai</t>
+  </si>
+  <si>
+    <t>http://izumishonen.89dream.jp/uploads/izumishonen/site_page/0005/fd1cb3626dd7be58014fa7c4ce7b49a2.jpg</t>
+  </si>
+  <si>
+    <t>https://www.nta.go.jp/about/organization/osaka/location/osaka/higashiosaka/data.htm</t>
+  </si>
+  <si>
+    <t>https://www.nta.go.jp/about/organization/nagoya/topics/tokushu/map_img/14.gif</t>
+  </si>
+  <si>
+    <t>http://iden.xsrv.jp/ss_mishima_south</t>
+  </si>
+  <si>
+    <t>https://store.tsite.jp/static_contents/site/tsite/ropponmatsu/img/floor/shop/eventspace/key.jpg</t>
+  </si>
+  <si>
+    <t>https://www.nta.go.jp/about/organization/nagoya/topics/tokushu/shizuoka/14.htm</t>
+  </si>
+  <si>
+    <t>https://www.nta.go.jp/about/organization/osaka/location/osaka/hirakata/map.gif</t>
+  </si>
+  <si>
+    <t>https://www.nta.go.jp/about/organization/osaka/location/osaka/hirakata/data.htm</t>
+  </si>
+  <si>
+    <t>http://hirakata-jc.jp/2015/about/image/organization.gif</t>
+  </si>
+  <si>
+    <t>http://hirakata-jc.jp/2015/about/organization.html</t>
+  </si>
+  <si>
+    <t>https://www.nta.go.jp/about/organization/osaka/location/osaka/hirakata/photo.jpg</t>
+  </si>
+  <si>
+    <t>https://www.co-medical.com/ccw/job169273/</t>
+  </si>
+  <si>
+    <t>http://livedoor.blogimg.jp/hiratsu/imgs/f/9/f91c0a45.jpg</t>
+  </si>
+  <si>
+    <t>https://www.nta.go.jp/about/organization/osaka/location/osaka/hirakata/index.htm</t>
+  </si>
+  <si>
+    <t>http://119.osaka.jp/event/20171215_kaishi/a_img/IMG03249.jpg</t>
+  </si>
+  <si>
+    <t>http://www.kandensv.co.jp/about/organization.html</t>
+  </si>
+  <si>
+    <t>https://www.nta.go.jp/about/organization/osaka/location/osaka/kishiwada/photo.jpg</t>
+  </si>
+  <si>
+    <t>https://www.nta.go.jp/about/organization/osaka/location/osaka/kishiwada/index.htm</t>
+  </si>
+  <si>
+    <t>http://www.hamanako-rc.com/files/Club/1/1/organization.png</t>
+  </si>
+  <si>
+    <t>http://www.hamanako-rc.com/club/organization</t>
+  </si>
+  <si>
+    <t>https://www.nta.go.jp/about/organization/osaka/topics/kakutei_shinkoku/img/suita_map.gif</t>
+  </si>
+  <si>
+    <t>https://www.nta.go.jp/about/organization/osaka/topics/kakutei_shinkoku/kaijyo/osaka/suita.htm</t>
+  </si>
+  <si>
+    <t>https://www.nta.go.jp/about/organization/osaka/location/osaka/ibaraki/photo.jpg</t>
+  </si>
+  <si>
+    <t>https://www.nta.go.jp/about/organization/osaka/location/osaka/ibaraki/index.htm</t>
+  </si>
+  <si>
+    <t>http://hirakata-jc.jp/2014/about/image/organization2.jpg</t>
+  </si>
+  <si>
+    <t>http://hirakata-jc.jp/2014/about/organization.html</t>
+  </si>
+  <si>
+    <t>https://www.nta.go.jp/about/organization/osaka/location/osaka/higashiosaka/photo.jpg</t>
+  </si>
+  <si>
+    <t>https://www.nta.go.jp/about/organization/osaka/location/osaka/higashiosaka/index.htm</t>
+  </si>
+  <si>
+    <t>http://www.foster.co.jp/csr/foster_group/images/organization_i0002.jpg</t>
+  </si>
+  <si>
+    <t>http://www.foster.co.jp/csr/foster_group/organization.html</t>
+  </si>
+  <si>
+    <t>https://www.k-takatsuki.co.jp/profile/img/profile_organization.jpg</t>
+  </si>
+  <si>
+    <t>https://retty.me/theme/100734204/</t>
+  </si>
+  <si>
+    <t>http://www.city.sakai.lg.jp/kurashi/bosai/shobo/shobosho/miharashobosho/syouboudan/katsudou/ponso-6.images/DSCF5908.JPG</t>
+  </si>
+  <si>
+    <t>https://www.k-takatsuki.co.jp/profile/organization.html</t>
+  </si>
+  <si>
+    <t>http://www.ip-s.jp/images/organization-diagram.png</t>
+  </si>
+  <si>
+    <t>https://www.yamatojk.co.jp/office/hirakata</t>
+  </si>
+  <si>
+    <t>http://www.asahi-pt.co.jp/annai2018/images/organizationchart.jpg</t>
+  </si>
+  <si>
+    <t>http://www.asahi-pt.co.jp/annai2018/soshiki.html</t>
+  </si>
+  <si>
+    <t>http://tsukushi.or.jp/tsukushijcwp/wp-content/uploads/2017/01/2018_organization-3.jpg</t>
+  </si>
+  <si>
+    <t>https://offer.mercariatte.com/jp/6068341021158031/</t>
+  </si>
+  <si>
+    <t>https://old-mishima-nishi-j.esnet.ed.jp/modules/wordpress0/attach/DSC05007.JPG</t>
+  </si>
+  <si>
+    <t>http://tsukushi.or.jp/about/organization/</t>
+  </si>
+  <si>
+    <t>https://www.nta.go.jp/about/organization/osaka/location/osaka/suita/photo.jpg</t>
+  </si>
+  <si>
+    <t>https://www.nta.go.jp/about/organization/osaka/location/osaka/suita/index.htm</t>
+  </si>
+  <si>
+    <t>http://obihiro-jc.jp/wp/wp-content/uploads/2017/12/organization2018.jpg</t>
+  </si>
+  <si>
+    <t>http://obihiro-jc.jp/soshiki.html</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/736x/c9/a6/26/c9a62664e261b861f28aa21068f2b610--organization.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.com/cobarie710/%E3%82%AD%E3%83%83%E3%83%81%E3%83%B3%E9%80%A0%E4%BD%9C%E6%A3%9A%E9%A3%9F%E5%99%A8%E6%A3%9A/</t>
+  </si>
+  <si>
+    <t>http://www.ojunkai.com/group/organization/flow.gif</t>
+  </si>
+  <si>
+    <t>http://www.ojunkai.com/group/organization.html</t>
+  </si>
+  <si>
+    <t>http://www.aade.co.jp/images/top/organization_chart_sp.png</t>
+  </si>
+  <si>
+    <t>http://www.aade.co.jp/</t>
+  </si>
+  <si>
+    <t>http://hospital.pref.kagoshima.jp/oshima/images/stories/contents/information/organization/sosikizu20180509.jpg</t>
+  </si>
+  <si>
+    <t>http://hospital.pref.kagoshima.jp/oshima/information/organization.html</t>
+  </si>
+  <si>
+    <t>http://www.niaifukushi.com/images/organization02.jpg</t>
+  </si>
+  <si>
+    <t>http://www.mod.go.jp/gsdf/eae/photo/tsubaki/photo_tsubaki.html</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/originals/aa/25/3d/aa253de514135bfe82607160c9bc9f66.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.co.uk/pin/797277940254929355/</t>
+  </si>
+  <si>
+    <t>https://www.newkukleaf.jp/img/newkukleaf/organization2.png</t>
+  </si>
+  <si>
+    <t>https://www.newkukleaf.jp/company/organization/</t>
+  </si>
+  <si>
+    <t>http://www.skyfilm.co.jp/images/organization-chart.png</t>
+  </si>
+  <si>
+    <t>http://www.skyfilm.co.jp/organization.html</t>
+  </si>
+  <si>
+    <t>http://godsamhill.com/wp-content/uploads/2016/11/ph2016111501.jpg</t>
+  </si>
+  <si>
+    <t>http://godsamhill.com/waterfalls/903/</t>
+  </si>
+  <si>
+    <t>https://www.nta.go.jp/about/organization/tokyo/sake/island/img/map.gif</t>
+  </si>
+  <si>
+    <t>http://www.bus.nihon-u.ac.jp/commercial/seminar/seminar_201711003173.html</t>
+  </si>
+  <si>
+    <t>https://lookaside.fbsbx.com/lookaside/crawler/media/?media_id=1288272737943786</t>
+  </si>
+  <si>
+    <t>https://www.nta.go.jp/about/organization/tokyo/sake/island/island.htm</t>
   </si>
 </sst>
 </file>
@@ -2410,7 +2767,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C350"/>
+  <dimension ref="A1:C412"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6246,6 +6603,688 @@
       </c>
       <c r="C350">
         <v>6</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="C351">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
+      <c r="A352" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="C352">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
+      <c r="A353" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="C353">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
+      <c r="A354" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="C354">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3">
+      <c r="A355" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="C355">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
+      <c r="A356" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="C356">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
+      <c r="A357" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="C357">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
+      <c r="A358" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="C358">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3">
+      <c r="A359" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="C359">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3">
+      <c r="A360" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="C360">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3">
+      <c r="A361" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="C361">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
+      <c r="A362" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="C362">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3">
+      <c r="A363" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="C363">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3">
+      <c r="A364" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="C364">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
+      <c r="A365" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="C365">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3">
+      <c r="A366" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="C366">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3">
+      <c r="A367" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="C367">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3">
+      <c r="A368" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="C368">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
+      <c r="A369" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="C369">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
+      <c r="A370" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="C370">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
+      <c r="A371" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="C371">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3">
+      <c r="A372" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="C372">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
+      <c r="A373" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="C373">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
+      <c r="A374" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="C374">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
+      <c r="A375" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="C375">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
+      <c r="A376" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="C376">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3">
+      <c r="A377" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="C377">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3">
+      <c r="A378" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="C378">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3">
+      <c r="A379" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="C379">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3">
+      <c r="A380" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="C380">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3">
+      <c r="A381" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="C381">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3">
+      <c r="A382" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="C382">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
+      <c r="A383" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="C383">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3">
+      <c r="A384" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="C384">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3">
+      <c r="A385" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="C385">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3">
+      <c r="A386" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="C386">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3">
+      <c r="A387" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="C387">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3">
+      <c r="A388" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="C388">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3">
+      <c r="A389" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="C389">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3">
+      <c r="A390" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C390">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3">
+      <c r="A391" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="C391">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3">
+      <c r="A392" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="C392">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3">
+      <c r="A393" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="C393">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3">
+      <c r="A394" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="C394">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3">
+      <c r="A395" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="C395">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3">
+      <c r="A396" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="C396">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3">
+      <c r="A397" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="C397">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3">
+      <c r="A398" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="C398">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3">
+      <c r="A399" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="C399">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3">
+      <c r="A400" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="C400">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3">
+      <c r="A401" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="C401">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3">
+      <c r="A402" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="C402">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3">
+      <c r="A403" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="C403">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3">
+      <c r="A404" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="C404">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3">
+      <c r="A405" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="C405">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3">
+      <c r="A406" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="C406">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3">
+      <c r="A407" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="C407">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3">
+      <c r="A408" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="C408">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3">
+      <c r="A409" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="C409">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3">
+      <c r="A410" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="C410">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3">
+      <c r="A411" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="C411">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3">
+      <c r="A412" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="C412">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -6944,6 +7983,130 @@
     <hyperlink ref="B349" r:id="rId692"/>
     <hyperlink ref="A350" r:id="rId693"/>
     <hyperlink ref="B350" r:id="rId694"/>
+    <hyperlink ref="A351" r:id="rId695"/>
+    <hyperlink ref="B351" r:id="rId696"/>
+    <hyperlink ref="A352" r:id="rId697"/>
+    <hyperlink ref="B352" r:id="rId698"/>
+    <hyperlink ref="A353" r:id="rId699"/>
+    <hyperlink ref="B353" r:id="rId700"/>
+    <hyperlink ref="A354" r:id="rId701"/>
+    <hyperlink ref="B354" r:id="rId702"/>
+    <hyperlink ref="A355" r:id="rId703"/>
+    <hyperlink ref="B355" r:id="rId704"/>
+    <hyperlink ref="A356" r:id="rId705"/>
+    <hyperlink ref="B356" r:id="rId706"/>
+    <hyperlink ref="A357" r:id="rId707"/>
+    <hyperlink ref="B357" r:id="rId708"/>
+    <hyperlink ref="A358" r:id="rId709"/>
+    <hyperlink ref="B358" r:id="rId710"/>
+    <hyperlink ref="A359" r:id="rId711"/>
+    <hyperlink ref="B359" r:id="rId712"/>
+    <hyperlink ref="A360" r:id="rId713"/>
+    <hyperlink ref="B360" r:id="rId714"/>
+    <hyperlink ref="A361" r:id="rId715"/>
+    <hyperlink ref="B361" r:id="rId716"/>
+    <hyperlink ref="A362" r:id="rId717"/>
+    <hyperlink ref="B362" r:id="rId718"/>
+    <hyperlink ref="A363" r:id="rId719"/>
+    <hyperlink ref="B363" r:id="rId720"/>
+    <hyperlink ref="A364" r:id="rId721"/>
+    <hyperlink ref="B364" r:id="rId722"/>
+    <hyperlink ref="A365" r:id="rId723"/>
+    <hyperlink ref="B365" r:id="rId724"/>
+    <hyperlink ref="A366" r:id="rId725"/>
+    <hyperlink ref="B366" r:id="rId726"/>
+    <hyperlink ref="A367" r:id="rId727"/>
+    <hyperlink ref="B367" r:id="rId728"/>
+    <hyperlink ref="A368" r:id="rId729"/>
+    <hyperlink ref="B368" r:id="rId730"/>
+    <hyperlink ref="A369" r:id="rId731"/>
+    <hyperlink ref="B369" r:id="rId732"/>
+    <hyperlink ref="A370" r:id="rId733"/>
+    <hyperlink ref="B370" r:id="rId734"/>
+    <hyperlink ref="A371" r:id="rId735"/>
+    <hyperlink ref="B371" r:id="rId736"/>
+    <hyperlink ref="A372" r:id="rId737"/>
+    <hyperlink ref="B372" r:id="rId738"/>
+    <hyperlink ref="A373" r:id="rId739"/>
+    <hyperlink ref="B373" r:id="rId740"/>
+    <hyperlink ref="A374" r:id="rId741"/>
+    <hyperlink ref="B374" r:id="rId742"/>
+    <hyperlink ref="A375" r:id="rId743"/>
+    <hyperlink ref="B375" r:id="rId744"/>
+    <hyperlink ref="A376" r:id="rId745"/>
+    <hyperlink ref="B376" r:id="rId746"/>
+    <hyperlink ref="A377" r:id="rId747"/>
+    <hyperlink ref="B377" r:id="rId748"/>
+    <hyperlink ref="A378" r:id="rId749"/>
+    <hyperlink ref="B378" r:id="rId750"/>
+    <hyperlink ref="A379" r:id="rId751"/>
+    <hyperlink ref="B379" r:id="rId752"/>
+    <hyperlink ref="A380" r:id="rId753"/>
+    <hyperlink ref="B380" r:id="rId754"/>
+    <hyperlink ref="A381" r:id="rId755"/>
+    <hyperlink ref="B381" r:id="rId756"/>
+    <hyperlink ref="A382" r:id="rId757"/>
+    <hyperlink ref="B382" r:id="rId758"/>
+    <hyperlink ref="A383" r:id="rId759"/>
+    <hyperlink ref="B383" r:id="rId760"/>
+    <hyperlink ref="A384" r:id="rId761"/>
+    <hyperlink ref="B384" r:id="rId762"/>
+    <hyperlink ref="A385" r:id="rId763"/>
+    <hyperlink ref="B385" r:id="rId764"/>
+    <hyperlink ref="A386" r:id="rId765"/>
+    <hyperlink ref="B386" r:id="rId766"/>
+    <hyperlink ref="A387" r:id="rId767"/>
+    <hyperlink ref="B387" r:id="rId768"/>
+    <hyperlink ref="A388" r:id="rId769"/>
+    <hyperlink ref="B388" r:id="rId770"/>
+    <hyperlink ref="A389" r:id="rId771"/>
+    <hyperlink ref="B389" r:id="rId772"/>
+    <hyperlink ref="A390" r:id="rId773"/>
+    <hyperlink ref="B390" r:id="rId774"/>
+    <hyperlink ref="A391" r:id="rId775"/>
+    <hyperlink ref="B391" r:id="rId776"/>
+    <hyperlink ref="A392" r:id="rId777"/>
+    <hyperlink ref="B392" r:id="rId778"/>
+    <hyperlink ref="A393" r:id="rId779"/>
+    <hyperlink ref="B393" r:id="rId780"/>
+    <hyperlink ref="A394" r:id="rId781"/>
+    <hyperlink ref="B394" r:id="rId782"/>
+    <hyperlink ref="A395" r:id="rId783"/>
+    <hyperlink ref="B395" r:id="rId784"/>
+    <hyperlink ref="A396" r:id="rId785"/>
+    <hyperlink ref="B396" r:id="rId786"/>
+    <hyperlink ref="A397" r:id="rId787"/>
+    <hyperlink ref="B397" r:id="rId788"/>
+    <hyperlink ref="A398" r:id="rId789"/>
+    <hyperlink ref="B398" r:id="rId790"/>
+    <hyperlink ref="A399" r:id="rId791"/>
+    <hyperlink ref="B399" r:id="rId792"/>
+    <hyperlink ref="A400" r:id="rId793"/>
+    <hyperlink ref="B400" r:id="rId794"/>
+    <hyperlink ref="A401" r:id="rId795"/>
+    <hyperlink ref="B401" r:id="rId796"/>
+    <hyperlink ref="A402" r:id="rId797"/>
+    <hyperlink ref="B402" r:id="rId798"/>
+    <hyperlink ref="A403" r:id="rId799"/>
+    <hyperlink ref="B403" r:id="rId800"/>
+    <hyperlink ref="A404" r:id="rId801"/>
+    <hyperlink ref="B404" r:id="rId802"/>
+    <hyperlink ref="A405" r:id="rId803"/>
+    <hyperlink ref="B405" r:id="rId804"/>
+    <hyperlink ref="A406" r:id="rId805"/>
+    <hyperlink ref="B406" r:id="rId806"/>
+    <hyperlink ref="A407" r:id="rId807"/>
+    <hyperlink ref="B407" r:id="rId808"/>
+    <hyperlink ref="A408" r:id="rId809"/>
+    <hyperlink ref="B408" r:id="rId810"/>
+    <hyperlink ref="A409" r:id="rId811"/>
+    <hyperlink ref="B409" r:id="rId812"/>
+    <hyperlink ref="A410" r:id="rId813"/>
+    <hyperlink ref="B410" r:id="rId814"/>
+    <hyperlink ref="A411" r:id="rId815"/>
+    <hyperlink ref="B411" r:id="rId816"/>
+    <hyperlink ref="A412" r:id="rId817"/>
+    <hyperlink ref="B412" r:id="rId818"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cw/google_search/urls.xlsx
+++ b/cw/google_search/urls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="803">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="1256">
   <si>
     <t>https://lookaside.fbsbx.com/lookaside/crawler/media/?media_id=1673335646259561</t>
   </si>
@@ -2423,6 +2423,1365 @@
   </si>
   <si>
     <t>https://www.nta.go.jp/about/organization/tokyo/sake/island/island.htm</t>
+  </si>
+  <si>
+    <t>https://media-cdn.tripadvisor.com/media/photo-s/11/35/a1/fe/organization-for-the.jpg</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.jp/LocationPhotoDirectLink-g1060900-d8439521-i288727550-Kaulana_Corn_Barley-Musashino_Tokyo_Prefecture_Kanto.html</t>
+  </si>
+  <si>
+    <t>http://fussajc.com/img/2018/organization_2018.jpg</t>
+  </si>
+  <si>
+    <t>https://tabetime.com/pc/shop_detail/top/40022301</t>
+  </si>
+  <si>
+    <t>https://www.enago.jp/academy/researcher_interview_hino1/</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/TnG33mZdTcU/maxresdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TnG33mZdTcU</t>
+  </si>
+  <si>
+    <t>https://www.nishitokyo-corolla.co.jp/file/cms/33612/109051/image.png</t>
+  </si>
+  <si>
+    <t>http://fussajc.com/organization.html</t>
+  </si>
+  <si>
+    <t>https://lookaside.fbsbx.com/lookaside/crawler/media/?media_id=1166244630088825</t>
+  </si>
+  <si>
+    <t>https://lookaside.fbsbx.com/lookaside/crawler/media/?media_id=773562619412258</t>
+  </si>
+  <si>
+    <t>http://www.hinohutech.co.jp/about/organization.html</t>
+  </si>
+  <si>
+    <t>http://www.musashinobank.co.jp/company/profile/img/organization_img_01.gif</t>
+  </si>
+  <si>
+    <t>http://www.musashinobank.co.jp/company/profile/organization.html</t>
+  </si>
+  <si>
+    <t>http://www.hachioji-jc.or.jp/2016/wp-content/themes/images/2016organization.gif</t>
+  </si>
+  <si>
+    <t>http://kaimono.mall.mitaka.ne.jp/author/kaimono/page/3/</t>
+  </si>
+  <si>
+    <t>http://www.hachioji-gojyokai.jp/img/organization_member.gif</t>
+  </si>
+  <si>
+    <t>http://www.hachioji-gojyokai.jp/organization.html</t>
+  </si>
+  <si>
+    <t>http://musashino-dental.or.jp/images/organization.jpg</t>
+  </si>
+  <si>
+    <t>https://8birdssite.blogspot.com/2016/12/2016127.html</t>
+  </si>
+  <si>
+    <t>http://www.himika.co.jp/info/img/organization_im01.gif</t>
+  </si>
+  <si>
+    <t>http://www.h-c-c.jp/images/organization/p_organization_chart_1.jpg</t>
+  </si>
+  <si>
+    <t>http://www.h-c-c.jp/organization.html</t>
+  </si>
+  <si>
+    <t>https://www.nta.go.jp/about/organization/tokyo/location/tokyo/musashifuchu/photo.jpg</t>
+  </si>
+  <si>
+    <t>https://www.nta.go.jp/about/organization/tokyo/location/tokyo/musashifuchu/index.htm</t>
+  </si>
+  <si>
+    <t>https://www.nta.go.jp/about/organization/tokyo/location/tokyo/hachioji/photo.jpg</t>
+  </si>
+  <si>
+    <t>https://www.nta.go.jp/about/organization/tokyo/location/tokyo/hachioji/index.htm</t>
+  </si>
+  <si>
+    <t>http://www.ryoyo.co.jp/library/image/jp/corporate/201803_organization.png</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.jp/LocationPhotoDirectLink-g1060898-d7509599-i246779021-Pasta_Pizza_Grazie_Gardens-Hachioji_Tokyo_Prefecture_Kanto.html</t>
+  </si>
+  <si>
+    <t>https://4.bp.blogspot.com/-GIeE9blBAxY/V2doOqo9Y9I/AAAAAAAAN2A/lUgg_uXfvKIgA6pXx77Af9XaOP2OA7FMACLcB/s1600/13410686_1043640282391727_883729521_o.jpg</t>
+  </si>
+  <si>
+    <t>http://www.ryoyo.co.jp/corporate/organization.html</t>
+  </si>
+  <si>
+    <t>https://www.nta.go.jp/about/organization/tokyo/location/tokyo/musashino/map.gif</t>
+  </si>
+  <si>
+    <t>https://www.hotpepper.jp/strJ000989893/</t>
+  </si>
+  <si>
+    <t>https://otakara-shaken.com/TenpoImages/IMG_SHOP_SMALL1_60102_0017.jpg</t>
+  </si>
+  <si>
+    <t>https://www.nta.go.jp/about/organization/tokyo/location/tokyo/musashino/data.htm</t>
+  </si>
+  <si>
+    <t>http://fussajc.com/img/2018/hed_title_organization_2018_04.jpg</t>
+  </si>
+  <si>
+    <t>http://2002mar.blog.fc2.com/blog-entry-432.html</t>
+  </si>
+  <si>
+    <t>http://godsamhill.com/wp-content/uploads/2017/08/ph2017080801.jpg</t>
+  </si>
+  <si>
+    <t>http://godsamhill.com/gourmet/2172/</t>
+  </si>
+  <si>
+    <t>https://www.nta.go.jp/about/organization/tokyo/location/tokyo/musashino/photo.jpg</t>
+  </si>
+  <si>
+    <t>https://www.nta.go.jp/about/organization/tokyo/location/tokyo/musashino/index.htm</t>
+  </si>
+  <si>
+    <t>http://www.taiyo-cc.co.jp/img/company-organization2.png</t>
+  </si>
+  <si>
+    <t>https://ikeichi.co.jp/renovation/construction/works3/</t>
+  </si>
+  <si>
+    <t>http://godsamhill.com/wp-content/uploads/2016/11/ph2016112701.jpg</t>
+  </si>
+  <si>
+    <t>http://tenkoo.militaryblog.jp/e907732.html</t>
+  </si>
+  <si>
+    <t>https://www.nta.go.jp/about/organization/tokyo/location/tokyo/musashifuchu/map.gif</t>
+  </si>
+  <si>
+    <t>https://www.nta.go.jp/about/organization/tokyo/location/tokyo/musashifuchu/data.htm</t>
+  </si>
+  <si>
+    <t>https://www.nta.go.jp/about/organization/osaka/topics/kakutei_shinkoku/img/higashiyama_map.gif</t>
+  </si>
+  <si>
+    <t>http://ehon.hinoshuku.com/archives/page06/test6.php</t>
+  </si>
+  <si>
+    <t>http://www.hairgracieux.com/shop/img/img151lh1010_1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.nta.go.jp/about/organization/osaka/topics/kakutei_shinkoku/kaijyo/kyoto/higashiyama.htm</t>
+  </si>
+  <si>
+    <t>http://fussajc.com/img/2018/hed_title_organization_2018_01.jpg</t>
+  </si>
+  <si>
+    <t>https://rakoo.rakuten.co.jp/store/2000066788/</t>
+  </si>
+  <si>
+    <t>https://cdn.athome.jp/image_files/path/NuNXWeCY5LxxF52xsGuuqw==.jpeg?width=300&amp;height=200&amp;margin=true</t>
+  </si>
+  <si>
+    <t>https://www.athome.co.jp/ahto/camelliaorganization.html</t>
+  </si>
+  <si>
+    <t>https://www.ninjal.ac.jp/info/aboutus/organization-chart/img/organization-chart_jp.png</t>
+  </si>
+  <si>
+    <t>https://www.fukuoka-edu.ac.jp/english/information/administrative_organization</t>
+  </si>
+  <si>
+    <t>https://www.jaea.go.jp/04/o-arai/nhc/jp/summary/images/organization.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ninjal.ac.jp/info/aboutus/organization-chart/</t>
+  </si>
+  <si>
+    <t>http://www.hansen-dis.jp/hansen-dis/wp/wp-content/uploads/img/01int/organization.png</t>
+  </si>
+  <si>
+    <t>http://www.hansen-dis.jp/01int/organization</t>
+  </si>
+  <si>
+    <t>http://www.nibiohn.go.jp/images_v2/fig_organization-jpn-4.png</t>
+  </si>
+  <si>
+    <t>https://www.nao.ac.jp/about-naoj/organization.html</t>
+  </si>
+  <si>
+    <t>http://www.nara-edu.ac.jp/img/2804administrative_organization.jpg</t>
+  </si>
+  <si>
+    <t>https://www.jaea.go.jp/04/o-arai/nhc/jp/summary/organization.html</t>
+  </si>
+  <si>
+    <t>http://upload.wikimedia.org/wikipedia/commons/thumb/6/6c/National_Hospital_Organization_Chiba-East-Hospital.jpg/240px-National_Hospital_Organization_Chiba-East-Hospital.jpg</t>
+  </si>
+  <si>
+    <t>http://www.nipr.ac.jp/outline/summary/organization.html</t>
+  </si>
+  <si>
+    <t>http://www.yuge.ac.jp/wp-content/themes/yugekousen/images/style/organization_1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.nig.ac.jp/nig/</t>
+  </si>
+  <si>
+    <t>https://www.muroran-it.ac.jp/guidance/wp-content/themes/02_guidance/image/about/organization/2016organization.png</t>
+  </si>
+  <si>
+    <t>http://www.yuge.ac.jp/school-guide/school_introduction/organization</t>
+  </si>
+  <si>
+    <t>https://www.kaiyodaiglobal.com/img/organization.jpg</t>
+  </si>
+  <si>
+    <t>https://www.muroran-it.ac.jp/guidance/about/organization.html</t>
+  </si>
+  <si>
+    <t>https://www.n.chiba-u.jp/dngl/about/img/organization_h28.jpg</t>
+  </si>
+  <si>
+    <t>https://www.n.chiba-u.jp/dngl/about/organization.html</t>
+  </si>
+  <si>
+    <t>http://www.momak.go.jp/Japanese/img/organization-h29-02.jpg</t>
+  </si>
+  <si>
+    <t>http://www.hosp.go.jp/~kyushu/</t>
+  </si>
+  <si>
+    <t>http://www.tobunken.go.jp/japanese/gaiyo/image/organization2016.jpg</t>
+  </si>
+  <si>
+    <t>https://www.kaiyodaiglobal.com/overview/</t>
+  </si>
+  <si>
+    <t>https://lookaside.fbsbx.com/lookaside/crawler/media/?media_id=1124166217725441</t>
+  </si>
+  <si>
+    <t>http://www.momak.go.jp/Japanese/organization.html</t>
+  </si>
+  <si>
+    <t>http://www.shikoku-cc.go.jp/hospital/guide/clerical/img/img_organization.gif</t>
+  </si>
+  <si>
+    <t>http://www.tobunken.go.jp/japanese/gaiyo/gaiyo-organization.html</t>
+  </si>
+  <si>
+    <t>https://www.townnews.co.jp/company/images/organizationimage.png</t>
+  </si>
+  <si>
+    <t>https://www.townnews.co.jp/company/organization.html</t>
+  </si>
+  <si>
+    <t>http://rsc.riken.jp/organization/image/organization2018-4.jpg</t>
+  </si>
+  <si>
+    <t>http://www.shikoku-cc.go.jp/hospital/guide/clerical/</t>
+  </si>
+  <si>
+    <t>https://www0.nih.go.jp/niid/ARC/img/organization.png</t>
+  </si>
+  <si>
+    <t>https://www0.nih.go.jp/niid/ARC/organization-d3.html</t>
+  </si>
+  <si>
+    <t>http://www.shimane-u.ac.jp/_files/00267243/organization300501.jpg</t>
+  </si>
+  <si>
+    <t>http://www.shimane-u.ac.jp/introduction/university_profile/organization/index.html.r</t>
+  </si>
+  <si>
+    <t>https://naraha.jaea.go.jp/summary/organization.html</t>
+  </si>
+  <si>
+    <t>http://static.panoramio.com/photos/original/70669130.jpg</t>
+  </si>
+  <si>
+    <t>http://www.tachishoku.jp/wp-content/themes/tachishoku/images/organization.jpg</t>
+  </si>
+  <si>
+    <t>http://www.tachishoku.jp/organization</t>
+  </si>
+  <si>
+    <t>https://www.ncc.go.jp/jp/ncce/division/pharmacy/content/organization_chart.jpg</t>
+  </si>
+  <si>
+    <t>https://www.hamada-nh.jp/6538/</t>
+  </si>
+  <si>
+    <t>https://www.nntt.jac.go.jp/about/foundation/images/organization_il01.gif</t>
+  </si>
+  <si>
+    <t>https://www.nntt.jac.go.jp/about/foundation/organization.html</t>
+  </si>
+  <si>
+    <t>http://www.nhoaomori.jp/outline/images/p_list_001.jpg</t>
+  </si>
+  <si>
+    <t>https://www.fukuoka-edu.ac.jp/english/information/education_organization</t>
+  </si>
+  <si>
+    <t>https://www.tuat-global.jp/about/images/organization_pic_03.gif</t>
+  </si>
+  <si>
+    <t>http://www.nhort.jp/kyushu/</t>
+  </si>
+  <si>
+    <t>http://www.chu-shi-nhp.jp/wp/wp-content/uploads/2016/05/organization.jpg</t>
+  </si>
+  <si>
+    <t>https://www.tuat-global.jp/about/organization.html</t>
+  </si>
+  <si>
+    <t>https://www.nii.ac.jp/about/assets_c/2018/04/img_organizationchart_2018-thumb-autox735-2250.png</t>
+  </si>
+  <si>
+    <t>http://www.tokushima-u.ac.jp/ccr/sico/en/etc.html</t>
+  </si>
+  <si>
+    <t>http://www.tama-irount.com/member/organization2.gif</t>
+  </si>
+  <si>
+    <t>http://www.tama-irount.com/member/organization.html</t>
+  </si>
+  <si>
+    <t>https://www.jaea.go.jp/04/o-arai/summary/images/organization.jpg</t>
+  </si>
+  <si>
+    <t>https://www.jaea.go.jp/04/o-arai/summary/organization.html</t>
+  </si>
+  <si>
+    <t>https://www.pwri.go.jp/team/imarrc/figure/organization.png</t>
+  </si>
+  <si>
+    <t>https://www.pwri.go.jp/team/imarrc/about_us/organization.html</t>
+  </si>
+  <si>
+    <t>http://www8.cao.go.jp/iryou/img/organizationchart.jpg</t>
+  </si>
+  <si>
+    <t>http://www8.cao.go.jp/iryou/amedoutline.html</t>
+  </si>
+  <si>
+    <t>http://www.bio.mie-u.ac.jp/about/administration/2018_organization.jpg</t>
+  </si>
+  <si>
+    <t>http://www.bio.mie-u.ac.jp/about/administration/</t>
+  </si>
+  <si>
+    <t>https://scontent-nrt1-1.cdninstagram.com/vp/157f40852ab47c9e9cc95dfec850c15b/5B8A0D54/t51.2885-15/s640x640/sh0.08/e35/31163039_172492596795804_5649041158668550144_n.jpg</t>
+  </si>
+  <si>
+    <t>http://blog.canpan.info/com-cafe/archive/793</t>
+  </si>
+  <si>
+    <t>https://www.soken.ac.jp/wordpress/wp-content/uploads/2013/12/organization2018.gif</t>
+  </si>
+  <si>
+    <t>http://tenryu-hosp.jp/recruit/smp/about_merit.html</t>
+  </si>
+  <si>
+    <t>https://www.hosp.go.jp/~tohkai/img/nho_kouhou.jpg</t>
+  </si>
+  <si>
+    <t>https://www.soken.ac.jp/outline/organization/organization01/</t>
+  </si>
+  <si>
+    <t>https://www.hosp.go.jp/~tohkai/</t>
+  </si>
+  <si>
+    <t>http://www.tuat-setsubi.org/about/images/organization_pic_01.gif</t>
+  </si>
+  <si>
+    <t>http://www.tuat-setsubi.org/about/organization.html</t>
+  </si>
+  <si>
+    <t>https://www.nao.ac.jp/contents/about-naoj/nav-box__organization.png</t>
+  </si>
+  <si>
+    <t>https://www.nao.ac.jp/about-naoj/</t>
+  </si>
+  <si>
+    <t>http://www.nipr.ac.jp/outline/summary/image/organization-fig2016.png</t>
+  </si>
+  <si>
+    <t>http://www.nipr.ac.jp/outline/summary/taisei.html</t>
+  </si>
+  <si>
+    <t>http://www.shikoku-cc.go.jp/research/greeting/img/img_organization.gif</t>
+  </si>
+  <si>
+    <t>http://www.shikoku-cc.go.jp/research/greeting/</t>
+  </si>
+  <si>
+    <t>https://www.jniosh.go.jp/icpro/jicosh-old/japanese/country/usa/ministry/niosh/niosh-organization.gif</t>
+  </si>
+  <si>
+    <t>http://www.tokyo.jrc.or.jp/application/news/detail/487</t>
+  </si>
+  <si>
+    <t>http://2.bp.blogspot.com/-cQL4CauC4JA/Uc0LfONIgRI/AAAAAAAAERI/a_HrAx2-7mg/s500/dogdeco1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.jniosh.go.jp/icpro/jicosh-old/japanese/country/usa/ministry/niosh/niosh-organization.html</t>
+  </si>
+  <si>
+    <t>http://snuc-ac.adm.ehime-u.ac.jp/attachments/Image/organization_1.png?template=generic</t>
+  </si>
+  <si>
+    <t>http://snuc-ac.adm.ehime-u.ac.jp/about-us/organization/</t>
+  </si>
+  <si>
+    <t>http://kobemc.go.jp/</t>
+  </si>
+  <si>
+    <t>http://d3f3hpqbpy4ou2.cloudfront.net/production/3dafe6f40798c54746496aa509a22600a7154b8db2fe59b7be9c6df249b3f0f0.png?1483885088</t>
+  </si>
+  <si>
+    <t>https://pbs.twimg.com/media/Dds5y3xU8AAyMtP.jpg</t>
+  </si>
+  <si>
+    <t>http://hph-ccmc.blogspot.com/2016/01/dmat.html</t>
+  </si>
+  <si>
+    <t>http://www.kobatoland.ac.jp/image/organization2.png</t>
+  </si>
+  <si>
+    <t>https://twitter.com/nig_idenken</t>
+  </si>
+  <si>
+    <t>http://redoxnavi.kyushu-u.ac.jp/_shared/img/about/organization_chart.png</t>
+  </si>
+  <si>
+    <t>http://redoxnavi.kyushu-u.ac.jp/project/regime</t>
+  </si>
+  <si>
+    <t>http://www.janul.jp/j/organization/regulations/janul_logomark.png</t>
+  </si>
+  <si>
+    <t>http://www.janul.jp/j/organization/regulations/logomark.html</t>
+  </si>
+  <si>
+    <t>http://www.toho-gakuen.com/images/organization.png</t>
+  </si>
+  <si>
+    <t>http://www.toho-gakuen.com/</t>
+  </si>
+  <si>
+    <t>https://www.jaea.go.jp/04/kokusaibu/ja/introduction/images/organization.jpg</t>
+  </si>
+  <si>
+    <t>https://www.jaea.go.jp/04/kokusaibu/ja/introduction/index.html</t>
+  </si>
+  <si>
+    <t>http://www.ncgg.go.jp/iccr/image/common/img_organization_chart.png</t>
+  </si>
+  <si>
+    <t>http://www.ncgg.go.jp/iccr/introduction/</t>
+  </si>
+  <si>
+    <t>https://www.nta.go.jp/about/organization/tokyo/location/tokyo/tachikawa/map.gif</t>
+  </si>
+  <si>
+    <t>https://www.tokushima-telework.jp/coworking/kengai/co-ba-chofu.html</t>
+  </si>
+  <si>
+    <t>http://www.tkl.iis.u-tokyo.ac.jp/FIRST/images/organization.png</t>
+  </si>
+  <si>
+    <t>http://www.tkl.iis.u-tokyo.ac.jp/FIRST/outline.html</t>
+  </si>
+  <si>
+    <t>http://www.ntt-f.co.jp/architect_e/shared/yokohama-mc/d-02.jpg</t>
+  </si>
+  <si>
+    <t>http://www.nipr.ac.jp/research/organization/</t>
+  </si>
+  <si>
+    <t>http://www.camellia-organization.co.jp/img/props/541_4.jpg</t>
+  </si>
+  <si>
+    <t>http://www.camellia-organization.co.jp/props/props.php?id=541</t>
+  </si>
+  <si>
+    <t>http://www.ncgm.go.jp/aboutus/organization/070/organize_ncn.png</t>
+  </si>
+  <si>
+    <t>http://www.ncgm.go.jp/aboutus/organization/070/index.html</t>
+  </si>
+  <si>
+    <t>https://www.nict.go.jp/assets/img/about/index/index-organization.png</t>
+  </si>
+  <si>
+    <t>https://www.nict.go.jp/about/</t>
+  </si>
+  <si>
+    <t>http://www.tachikawajc.or.jp/2005/image/organization.gif</t>
+  </si>
+  <si>
+    <t>http://www.tachikawajc.or.jp/2005/organization.html</t>
+  </si>
+  <si>
+    <t>http://tama-tco.jp/images/organization.gif</t>
+  </si>
+  <si>
+    <t>http://tama-tco.jp/500_about.php</t>
+  </si>
+  <si>
+    <t>http://www.fedu.uec.ac.jp/current/2010/11/16/party.png</t>
+  </si>
+  <si>
+    <t>http://www.fedu.uec.ac.jp/current/news/invitation-to-chofu-lions-club-international-exchange-party.html</t>
+  </si>
+  <si>
+    <t>http://www.sciencecenter.or.kr/_jpn/img/sub/img_organization_jpn.jpg</t>
+  </si>
+  <si>
+    <t>http://www.sciencecenter.or.kr/menu.es?mid=a50103000000</t>
+  </si>
+  <si>
+    <t>http://www.cs.tuat.ac.jp/outline/3/img/organization.png</t>
+  </si>
+  <si>
+    <t>http://www.cs.tuat.ac.jp/outline/3/</t>
+  </si>
+  <si>
+    <t>https://www.nta.go.jp/about/organization/tokyo/location/tokyo/ome/photo.jpg</t>
+  </si>
+  <si>
+    <t>https://www.nta.go.jp/about/organization/tokyo/location/tokyo/ome/index.htm</t>
+  </si>
+  <si>
+    <t>https://www.nta.go.jp/about/organization/tokyo/location/tokyo/ome/map.gif</t>
+  </si>
+  <si>
+    <t>https://deece.jp/amusement/27690474</t>
+  </si>
+  <si>
+    <t>https://tblg.k-img.com/restaurant/images/Rvw/11856/11856556.jpg</t>
+  </si>
+  <si>
+    <t>https://www.nta.go.jp/about/organization/tokyo/location/tokyo/ome/data.htm</t>
+  </si>
+  <si>
+    <t>https://pbs.twimg.com/media/DG1zo4ZV0AAkKtp.jpg</t>
+  </si>
+  <si>
+    <t>https://hitosara.com/tlog_13161413/</t>
+  </si>
+  <si>
+    <t>http://www.camellia-organization.co.jp/img/props/499_4.jpg</t>
+  </si>
+  <si>
+    <t>http://www.camellia-organization.co.jp/props/props.php?id=499</t>
+  </si>
+  <si>
+    <t>http://www.super.nuee.nagoya-u.ac.jp/alca/images/organization/organization03.jpg</t>
+  </si>
+  <si>
+    <t>http://www.super.nuee.nagoya-u.ac.jp/alca/organization.html</t>
+  </si>
+  <si>
+    <t>http://www.ncgm.go.jp/aboutus/organization/060/organize_kyoku.png</t>
+  </si>
+  <si>
+    <t>http://www.ncgm.go.jp/aboutus/organization/060/index.html</t>
+  </si>
+  <si>
+    <t>http://www.camellia-organization.co.jp/img/props/536_4.jpg</t>
+  </si>
+  <si>
+    <t>http://www.camellia-organization.co.jp/props/props.php?id=536</t>
+  </si>
+  <si>
+    <t>http://www.nipr.ac.jp/jare/system/image/organization-fig2.png</t>
+  </si>
+  <si>
+    <t>http://www.nipr.ac.jp/jare/system/05.html</t>
+  </si>
+  <si>
+    <t>http://www.ncgg.go.jp/camd/organization/images/soshikizu201707.gif</t>
+  </si>
+  <si>
+    <t>http://www.ncgg.go.jp/camd/organization/</t>
+  </si>
+  <si>
+    <t>http://www.tokushima-u.ac.jp/_files/00143059/pict0008.gif</t>
+  </si>
+  <si>
+    <t>http://www.tokushima-u.ac.jp/hbs/research/organization/synthesis.html</t>
+  </si>
+  <si>
+    <t>http://www.showa-no-mori-organization.jp/topix/img/2018/0305_02.jpg</t>
+  </si>
+  <si>
+    <t>http://www.showa-no-mori-organization.jp/topix/index.html</t>
+  </si>
+  <si>
+    <t>http://www.tmr-ltd.co.jp/company/img/img-organization-01.png</t>
+  </si>
+  <si>
+    <t>http://www.tmr-ltd.co.jp/company/organization.php</t>
+  </si>
+  <si>
+    <t>http://www.ncgg.go.jp/hospital/overview/organization/nurse/images/2018haru.jpg</t>
+  </si>
+  <si>
+    <t>http://www.ncgg.go.jp/hospital/overview/organization/nurse/internship.html</t>
+  </si>
+  <si>
+    <t>https://www.nta.go.jp/about/organization/tokyo/location/tokyo/tachikawa/photo.jpg</t>
+  </si>
+  <si>
+    <t>https://www.nta.go.jp/about/organization/tokyo/location/tokyo/tachikawa/index.htm</t>
+  </si>
+  <si>
+    <t>http://www.camellia-organization.co.jp/img/props/344_6.jpg</t>
+  </si>
+  <si>
+    <t>http://www.camellia-organization.co.jp/props/props.php?id=344</t>
+  </si>
+  <si>
+    <t>http://www.camellia-organization.co.jp/img/props/503_4.jpg</t>
+  </si>
+  <si>
+    <t>http://www.camellia-organization.co.jp/props/props.php?id=503</t>
+  </si>
+  <si>
+    <t>http://www.camellia-organization.co.jp/img/props/521_5.jpg</t>
+  </si>
+  <si>
+    <t>http://www.camellia-organization.co.jp/props/props.php?id=521</t>
+  </si>
+  <si>
+    <t>https://lookaside.fbsbx.com/lookaside/crawler/media/?media_id=767508676656846</t>
+  </si>
+  <si>
+    <t>http://setagaya-kaigo.net/hp/aboutkaigonet/organization/</t>
+  </si>
+  <si>
+    <t>http://www.setagayatm.or.jp/about/organization/img/organization.png</t>
+  </si>
+  <si>
+    <t>http://www.omiyacyuou-seika.co.jp/company/organization/index.html</t>
+  </si>
+  <si>
+    <t>https://www.neribun.or.jp/img/organization_zu_2017.gif</t>
+  </si>
+  <si>
+    <t>https://ja.wikipedia.org/wiki/%E5%9B%BD%E7%AB%8B%E7%97%85%E9%99%A2%E6%A9%9F%E6%A7%8B%E5%85%B5%E5%BA%AB%E4%B8%AD%E5%A4%AE%E7%97%85%E9%99%A2</t>
+  </si>
+  <si>
+    <t>https://nerimakukendorenmei.files.wordpress.com/2014/06/organization2014.jpg?w=640</t>
+  </si>
+  <si>
+    <t>https://nerimakukendorenmei.wordpress.com/%E9%80%A3%E7%9B%9F%E7%B4%B9%E4%BB%8B/%E7%B5%84%E7%B9%94%E5%9B%B3/</t>
+  </si>
+  <si>
+    <t>http://www.kyoritsu-con.co.jp/saiyo/images/organization/organization_ph_sp.png</t>
+  </si>
+  <si>
+    <t>https://www.neribun.or.jp/overview/organization.html</t>
+  </si>
+  <si>
+    <t>http://www.nutsweb.com/organization/img/img_organization.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ce-kk.co.jp/ja/company/organization/</t>
+  </si>
+  <si>
+    <t>http://www.chiyoda-trade.co.jp/company/img/organization_chart2017.gif</t>
+  </si>
+  <si>
+    <t>http://www.chiyoda-trade.co.jp/company/organization.html</t>
+  </si>
+  <si>
+    <t>https://lookaside.fbsbx.com/lookaside/crawler/media/?media_id=1717533048516256</t>
+  </si>
+  <si>
+    <t>http://www.yusen-koun.co.jp/company/organization.html</t>
+  </si>
+  <si>
+    <t>http://www.cta.chiyoda.co.jp/assets/images/corporate/organization.gif?20170401</t>
+  </si>
+  <si>
+    <t>http://www.cta.chiyoda.co.jp/corporate/organization.html</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/1/1c/NATIONAL_HOSPITAL_ORGANIZATION_KINKI_-_CHUO_CHEST_MEDICAL_CENTER.jpg</t>
+  </si>
+  <si>
+    <t>http://www.iwasakinet.co.jp/information/organization/index.html</t>
+  </si>
+  <si>
+    <t>http://www.ntt-f.co.jp/profile/images/organization_zu.gif</t>
+  </si>
+  <si>
+    <t>http://www.ntt-f.co.jp/profile/organization.html</t>
+  </si>
+  <si>
+    <t>https://image.shutterstock.com/image-vector/business-infographics-organization-chart-4-260nw-763805035.jpg</t>
+  </si>
+  <si>
+    <t>https://www.shutterstock.com/search/%E4%B8%AD%E5%A4%AE%E7%82%B9?searchterm=%E4%B8%AD%E5%A4%AE%E7%82%B9&amp;search_source=base_keyword&amp;language=en&amp;page=2</t>
+  </si>
+  <si>
+    <t>http://www.ja-fc.or.jp/chuoukai/image/organization.png</t>
+  </si>
+  <si>
+    <t>http://www.ja-fc.or.jp/chuoukai/</t>
+  </si>
+  <si>
+    <t>http://www.mod.go.jp/gsdf/crf/pa/shared/images/organization/01/img_01.jpg</t>
+  </si>
+  <si>
+    <t>http://www.mod.go.jp/gsdf/crf/pa/organization/01.html</t>
+  </si>
+  <si>
+    <t>https://www.nakano-works.com/wordpress/wp-content/uploads/2015/11/organization-chart.png</t>
+  </si>
+  <si>
+    <t>https://www.nakano-works.com/</t>
+  </si>
+  <si>
+    <t>https://www.rofuku.net/images/organization.png</t>
+  </si>
+  <si>
+    <t>https://pngtree.com/free-powerpoint-template/party-organization-construction-work-summary-party-building-training-ppt-template_60389</t>
+  </si>
+  <si>
+    <t>https://lookaside.fbsbx.com/lookaside/crawler/media/?media_id=1832738456940987</t>
+  </si>
+  <si>
+    <t>https://www.ciea.or.jp/about/organization/tree.php</t>
+  </si>
+  <si>
+    <t>https://s-media-cache-ak0.pinimg.com/736x/3d/64/9b/3d649b535dbbe289b37697779f383828--family-command-center-command-centers.jpg</t>
+  </si>
+  <si>
+    <t>https://www.rofuku.net/about/organization/</t>
+  </si>
+  <si>
+    <t>https://lookaside.fbsbx.com/lookaside/crawler/media/?media_id=1006605162827715</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.jp/agg77/organization/</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/e/ea/National_Hospital_Organization_Nishisaitama_Chuo_National_Hospital-2.JPG/300px-National_Hospital_Organization_Nishisaitama_Chuo_National_Hospital-2.JPG</t>
+  </si>
+  <si>
+    <t>https://dcdn.cdn.nimg.jp/niconews/articles/body_images/3401948/e6571cd6e18dc701be530a2fd6cb796fbb4235fd59175663f407f545a2f3f5b56b4264b1336e63863c52ce85536c2f7c4f4e9aa51f4ff174eaf33d138f228621</t>
+  </si>
+  <si>
+    <t>http://www.central-ser.co.jp/organization.html</t>
+  </si>
+  <si>
+    <t>http://www.recruit-specialist.com/common/img/fig_business_organization_01.gif</t>
+  </si>
+  <si>
+    <t>https://ja.wikipedia.org/wiki/%E5%9B%BD%E7%AB%8B%E7%97%85%E9%99%A2%E6%A9%9F%E6%A7%8B%E8%A5%BF%E5%9F%BC%E7%8E%89%E4%B8%AD%E5%A4%AE%E7%97%85%E9%99%A2</t>
+  </si>
+  <si>
+    <t>http://www.gracemate.jp/company/img/organization_chart.png</t>
+  </si>
+  <si>
+    <t>http://news.nicovideo.jp/watch/nw3401948</t>
+  </si>
+  <si>
+    <t>https://www.nochubank.or.jp/about/img/img_organization_01.png</t>
+  </si>
+  <si>
+    <t>https://www.nochubank.or.jp/about/organization.html</t>
+  </si>
+  <si>
+    <t>https://www.kchnet.or.jp/crc/about/images/organization/organization08.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.ch/pin/560346378617462382/</t>
+  </si>
+  <si>
+    <t>http://www.e-truth.co.jp/images/organization_chart.png</t>
+  </si>
+  <si>
+    <t>http://www.cde.co.jp/company/organization.html</t>
+  </si>
+  <si>
+    <t>http://www.chuo-u.ac.jp/research/institutes/comparative_law/outline/organization/img/organization01.gif</t>
+  </si>
+  <si>
+    <t>https://www.kchnet.or.jp/crc/about/organization.html</t>
+  </si>
+  <si>
+    <t>http://www.nakanosogo.or.jp/common/image/organization.png</t>
+  </si>
+  <si>
+    <t>http://www.e-truth.co.jp/company_03.html</t>
+  </si>
+  <si>
+    <t>https://blog-001.west.edge.storage-yahoo.jp/res/blog-9c-70/higashimachisho/folder/1286740/32/41967832/img_0_m?1449716299</t>
+  </si>
+  <si>
+    <t>http://www.chuo-u.ac.jp/research/institutes/comparative_law/outline/organization/</t>
+  </si>
+  <si>
+    <t>http://www.syscon.co.jp/images/organization_01.jpg</t>
+  </si>
+  <si>
+    <t>http://www.syscon.co.jp/corporation/organization.html</t>
+  </si>
+  <si>
+    <t>http://www.nerima-gakudou.jp/img/news/atvRRwkF.jpg</t>
+  </si>
+  <si>
+    <t>http://www.nakanosogo.or.jp/introduction/organization/</t>
+  </si>
+  <si>
+    <t>http://www.ensuiko.co.jp/company/images/organization_img.gif</t>
+  </si>
+  <si>
+    <t>http://www.ensuiko.co.jp/company/organization.html</t>
+  </si>
+  <si>
+    <t>https://hodogaya.jcho.go.jp/</t>
+  </si>
+  <si>
+    <t>https://www.mm-chiyoda.or.jp/wp-content/themes/chiyoda2/img/figure-organization.png</t>
+  </si>
+  <si>
+    <t>https://www.mm-chiyoda.or.jp/future</t>
+  </si>
+  <si>
+    <t>https://lookaside.fbsbx.com/lookaside/crawler/media/?media_id=991944834175538</t>
+  </si>
+  <si>
+    <t>https://www.chintai.or.jp/magazine/AichiChuo/organizationTree.gif</t>
+  </si>
+  <si>
+    <t>https://sites.google.com/site/setagayarfc</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/236x/4c/b3/07/4cb307aeee1de400f59d431e125b67b0--organization-wardrobe-bathroom-storage-organization.jpg</t>
+  </si>
+  <si>
+    <t>https://in.pinterest.com/pin/615515474047110285/</t>
+  </si>
+  <si>
+    <t>http://www.setagaya-bunka.jp/about/img/organization.jpg</t>
+  </si>
+  <si>
+    <t>http://slidesplayer.net/slide/11277030/</t>
+  </si>
+  <si>
+    <t>http://www.kirin-logistics.co.jp/info/images/organization_02.jpg?ver=170323</t>
+  </si>
+  <si>
+    <t>https://www.chintai.or.jp/magazine/AichiChuo/organization.html</t>
+  </si>
+  <si>
+    <t>https://www.kchnet.or.jp/kango/outline/images/organization-01.gif</t>
+  </si>
+  <si>
+    <t>https://www.kchnet.or.jp/kango/outline/organization.aspx</t>
+  </si>
+  <si>
+    <t>https://pbs.twimg.com/media/Cz3EbIbVIAAG5HV.jpg</t>
+  </si>
+  <si>
+    <t>http://www.kirin-logistics.co.jp/info/organization.html</t>
+  </si>
+  <si>
+    <t>https://www.cis-net.co.jp/wp-content/themes/sghd/images/ab_chart_img.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cis-net.co.jp/about_us/organization_chart/</t>
+  </si>
+  <si>
+    <t>https://www.chintai.or.jp/magazine/GifuChuo/organization.gif</t>
+  </si>
+  <si>
+    <t>https://www.chintai.or.jp/magazine/GifuChuo/organization.html</t>
+  </si>
+  <si>
+    <t>https://www.nakano-fj.jp/wordpress/wp-content/uploads/2016/02/organization.png</t>
+  </si>
+  <si>
+    <t>https://www.nakano-fj.jp/about/organization.html</t>
+  </si>
+  <si>
+    <t>http://www.jfaiu.gr.jp/img/about/img_organization.png</t>
+  </si>
+  <si>
+    <t>http://www.chiyoda-chuo.gr.jp/before/contents/information/guidance.html</t>
+  </si>
+  <si>
+    <t>https://www.showcase-gig.com/wp-content/uploads/2016/05/qiita_organization.png</t>
+  </si>
+  <si>
+    <t>http://www.hondacars-tokyochuo.co.jp/home/194_sr0Y.html</t>
+  </si>
+  <si>
+    <t>https://pbs.twimg.com/profile_images/1535933103/_DSC1962_400x400.jpg</t>
+  </si>
+  <si>
+    <t>http://www.jfaiu.gr.jp/about/organization.php</t>
+  </si>
+  <si>
+    <t>https://www.cks-ykh.co.jp/images/organization.gif</t>
+  </si>
+  <si>
+    <t>https://www.cks-ykh.co.jp/company/item3.html</t>
+  </si>
+  <si>
+    <t>http://www.chuo-u.ac.jp/visitor_alumni/gakuinkai/outline/organization/img/organization01.jpg</t>
+  </si>
+  <si>
+    <t>http://www.chuo-u.ac.jp/visitor_alumni/gakuinkai/outline/organization/</t>
+  </si>
+  <si>
+    <t>http://www.mod.go.jp/gsdf/nae/11d/organization/images/tokka/tainokatudoujyoukyou/29/290825nichibei/41.jpg</t>
+  </si>
+  <si>
+    <t>http://www.mod.go.jp/gsdf/nae/11d/organization/images/tokka/tainokatudoujyoukyou/29/290825nichibei/290825nichibei.html</t>
+  </si>
+  <si>
+    <t>http://www.city.minato.tokyo.jp/smartphone/images/kankeikikan-top_btn_ja.jpg</t>
+  </si>
+  <si>
+    <t>http://www.city.minato.tokyo.jp/smartphone/</t>
+  </si>
+  <si>
+    <t>http://www.ja-hiroshima.or.jp/about/img/img_chuuoukai_organization.gif</t>
+  </si>
+  <si>
+    <t>http://npomagichour.jp/?p=202</t>
+  </si>
+  <si>
+    <t>https://www.spf.org/opri-j/profile/organization/img/pic_organization.gif</t>
+  </si>
+  <si>
+    <t>http://yoheichitarra.blogspot.com/2014/05/blog-post.html</t>
+  </si>
+  <si>
+    <t>http://119.245.176.28/app-def/S-102/wp3/wp-content/uploads/2016/05/Still0529_000051.jpg</t>
+  </si>
+  <si>
+    <t>https://www.spf.org/opri-j/profile/organization/</t>
+  </si>
+  <si>
+    <t>http://www.chuo-u.ac.jp/research/institutes/socialsciences/outline/organization/img/organization01.gif</t>
+  </si>
+  <si>
+    <t>http://www.marusen.co.jp/profile/organizaion.html</t>
+  </si>
+  <si>
+    <t>http://www.taro-jp.com/img/2017organization_img02.gif</t>
+  </si>
+  <si>
+    <t>http://p-a-n-t-y.com/page/21</t>
+  </si>
+  <si>
+    <t>https://www.tta.gov.tw/japan/images/img_organization.jpg</t>
+  </si>
+  <si>
+    <t>http://www.taro-jp.com/organization.html</t>
+  </si>
+  <si>
+    <t>http://www.shikoku-k.co.jp/soshiki.gif</t>
+  </si>
+  <si>
+    <t>http://www.shikoku-k.co.jp/organization.html</t>
+  </si>
+  <si>
+    <t>http://www.nochubank-saiyo.com/branch_office/fukushima/images/organization_chart.gif</t>
+  </si>
+  <si>
+    <t>http://www.nochubank-saiyo.com/branch_office/fukushima/</t>
+  </si>
+  <si>
+    <t>http://www.oazo-kodomoclub.net/images/organization01.jpg</t>
+  </si>
+  <si>
+    <t>http://asahi-kinder.ac.jp/</t>
+  </si>
+  <si>
+    <t>https://www.triis.co.jp/common/images/img_organization_180323.png</t>
+  </si>
+  <si>
+    <t>http://www.oazo-kodomoclub.net/organization.html</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/IDEGKLqNukc/maxresdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://www.triis.co.jp/company/organization.html</t>
+  </si>
+  <si>
+    <t>http://www.scmct.com/images/MichikoShoji_bio.jpg</t>
+  </si>
+  <si>
+    <t>http://meister-group.jp/medical/care/organization.html</t>
+  </si>
+  <si>
+    <t>http://www.ims.u-tokyo.ac.jp/mucovac/image/organization.jpg</t>
+  </si>
+  <si>
+    <t>http://www.j-esthe.com/salon/tokyo/shibuya/</t>
+  </si>
+  <si>
+    <t>http://img.bikebros.co.jp/com_images/trp_img/2017/05/01/14007l.jpg</t>
+  </si>
+  <si>
+    <t>http://www.ims.u-tokyo.ac.jp/mucovac/organization.html</t>
+  </si>
+  <si>
+    <t>http://www.nftc.jp/images/img_organization2.gif</t>
+  </si>
+  <si>
+    <t>http://www.nftc.jp/organization.html</t>
+  </si>
+  <si>
+    <t>http://www.izumikousan.co.jp/company/img/organization.gif</t>
+  </si>
+  <si>
+    <t>http://www.houwakensetsu.co.jp/company/organization.php</t>
+  </si>
+  <si>
+    <t>http://www.chuo-u.ac.jp/research/institutes/economic/outline/organization/img/organization01.gif</t>
+  </si>
+  <si>
+    <t>http://www.chuo-u.ac.jp/research/institutes/economic/outline/organization/</t>
+  </si>
+  <si>
+    <t>http://zeimu.seityo-sien.com/images/profile/organization/organization_img_01.png</t>
+  </si>
+  <si>
+    <t>http://www.oonaka.co.jp/news/%E6%9C%AC%E9%83%A8%E6%B8%AF%EF%BC%88%E6%9C%AC%E9%83%A8%E5%9C%B0%E5%8C%BA%EF%BC%89%E9%98%B2%E6%B3%A2%E5%A0%A4%EF%BC%88%E6%B2%96%EF%BC%89%E3%82%B1%E3%83%BC%E3%82%BD%E3%83%B3%E8%A3%BD%E4%BD%9C/</t>
+  </si>
+  <si>
+    <t>http://nakanoss.co.jp/cms/wp-content/uploads/2015/10/%E5%85%A8%E4%BD%93%E6%96%B0%E5%B7%A5%E5%A0%B4%E5%89%8D%E2%91%A1-300x225.jpg</t>
+  </si>
+  <si>
+    <t>http://zeimu.seityo-sien.com/profile/organization/</t>
+  </si>
+  <si>
+    <t>https://www.exeojapan.com/assets/img/company/organization-pc.png</t>
+  </si>
+  <si>
+    <t>http://blog.livedoor.jp/suginamifc/archives/50890342.html</t>
+  </si>
+  <si>
+    <t>http://www.ozmall.co.jp/restaurant/images/client/0383_3513_ph1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.exeojapan.com/company/organization.html</t>
+  </si>
+  <si>
+    <t>http://www.mod.go.jp/gsdf/nae/11d/organization/images/tokka/tainokatudoujyoukyou/29/290929ryodannkougeki/img/14.jpg</t>
+  </si>
+  <si>
+    <t>http://wasabi-now.com/article/b050543395ebfff7fb7ae0c4c26f1fb8</t>
+  </si>
+  <si>
+    <t>https://tblg.k-img.com/resize/660x370c/restaurant/images/Rvw/24859/24859944.jpg?token=88a513e&amp;api=v2</t>
+  </si>
+  <si>
+    <t>http://www.mod.go.jp/gsdf/nae/11d/organization/images/tokka/tainokatudoujyoukyou/29/290929ryodannkougeki/290929ryodannkougeki.html</t>
+  </si>
+  <si>
+    <t>https://shaken.r10s.jp/shaken/app/img/shop/1409/0.png</t>
+  </si>
+  <si>
+    <t>http://www.city.ginowan.okinawa.jp/organization/chuuoukouminkan/</t>
+  </si>
+  <si>
+    <t>http://www.seihoukai.or.jp/wp-hospital/wp-content/uploads/2017/07/seihoukai_organization_img.jpg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WVxftilcodY</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/236x/1b/a6/13/1ba6137c85ca39dc2a7d0d57166ee623--organization-crafts.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.com/pin/75927943704196283/</t>
+  </si>
+  <si>
+    <t>http://www.t-c-t.co.jp/entry_image/organizationchart.jpg</t>
+  </si>
+  <si>
+    <t>http://www.t-c-t.co.jp/aboutus/company.html</t>
+  </si>
+  <si>
+    <t>http://www.kantoralogi.co.jp/network/images/organization_img.gif</t>
+  </si>
+  <si>
+    <t>http://www.kantoralogi.co.jp/network/organization.html</t>
+  </si>
+  <si>
+    <t>http://www.coby.jp/company/img/organization_image.gif</t>
+  </si>
+  <si>
+    <t>http://www.coby.jp/company/</t>
+  </si>
+  <si>
+    <t>http://www.taiyo-cc.co.jp/company.html</t>
+  </si>
+  <si>
+    <t>http://www.nikko-pm.co.jp/img/img_organization_chart_2.jpg</t>
+  </si>
+  <si>
+    <t>http://www.nikko-pm.co.jp/company.html</t>
+  </si>
+  <si>
+    <t>http://www.knp-inc.co.jp/wp-content/themes/knp/img/top/img_organization_modal.png</t>
+  </si>
+  <si>
+    <t>http://www.knp-inc.co.jp/</t>
+  </si>
+  <si>
+    <t>http://www.chuotsushin.co.jp/jquery.mobile/images/img_organization.png</t>
+  </si>
+  <si>
+    <t>http://www.chuotsushin.co.jp/jquery.mobile/mobile_index.html</t>
+  </si>
+  <si>
+    <t>https://www.asahicom.jp/articles/images/AS20180326002636_comm.jpg</t>
+  </si>
+  <si>
+    <t>http://welcometaito.jp/about/organization/</t>
+  </si>
+  <si>
+    <t>https://image.jimcdn.com/app/cms/image/transf/dimension=666x10000:format=jpg/path/sac71d2aae1d84899/image/iee6185a5b5c9dcbd/version/1477381320/image.jpg</t>
+  </si>
+  <si>
+    <t>https://blogs.yahoo.co.jp/chuouoyaji</t>
+  </si>
+  <si>
+    <t>http://www.mod.go.jp/gsdf/nae/11d/organization/images/tokka/tainokatudoujyoukyou/29/290825nichibei/51.jpg</t>
+  </si>
+  <si>
+    <t>https://www.hakumon-herald.com/2016/10/16/chances-to-learn-of-countries-and-regions-the-international-week-at-chuo-university/</t>
+  </si>
+  <si>
+    <t>https://blog.one-team.com/images/2018-02-01-cto-coo/2018-02-01-blog-ver2.png</t>
+  </si>
+  <si>
+    <t>https://blog.one-team.com/ja/tags/organization/</t>
+  </si>
+  <si>
+    <t>http://osd-happylife.jp/img/organization04.jpg</t>
+  </si>
+  <si>
+    <t>http://osd-happylife.jp/organization.html</t>
+  </si>
+  <si>
+    <t>https://shop.r10s.jp/yield/cabinet/ikiji/ik-a11825105p-5.jpg</t>
+  </si>
+  <si>
+    <t>https://global.rakuten.com/en/store/yield/item/ik-a11825105p/</t>
+  </si>
+  <si>
+    <t>https://www.nta.go.jp/about/organization/tokyo/location/tokyo/meguro/photo.jpg</t>
+  </si>
+  <si>
+    <t>https://www.nta.go.jp/about/organization/tokyo/location/tokyo/meguro/index.htm</t>
+  </si>
+  <si>
+    <t>https://www.nta.go.jp/about/organization/tokyo/location/tokyo/meguro/map.gif</t>
+  </si>
+  <si>
+    <t>https://www.nta.go.jp/about/organization/tokyo/location/tokyo/meguro/data.htm</t>
+  </si>
+  <si>
+    <t>https://shop.r10s.jp/yield/cabinet/ikiji/ik-a11825105i-5.jpg</t>
+  </si>
+  <si>
+    <t>https://koukichi-t.com/en/archives/3238</t>
+  </si>
+  <si>
+    <t>https://tabelog.com/tokyo/A1319/A131902/13170518/</t>
+  </si>
+  <si>
+    <t>http://www.dust-control.or.jp/data/img/about/organization.gif</t>
+  </si>
+  <si>
+    <t>http://www.dust-control.or.jp/about/organization.html</t>
+  </si>
+  <si>
+    <t>http://www.chunichi-con.co.jp/imgs/company/organization_chart.jpg</t>
+  </si>
+  <si>
+    <t>http://www.chunichi-con.co.jp/company.html</t>
+  </si>
+  <si>
+    <t>https://www.nta.go.jp/about/organization/tokyo/location/tokyo/suginami/map.gif</t>
+  </si>
+  <si>
+    <t>https://www.nta.go.jp/about/organization/tokyo/location/tokyo/suginami/data.htm</t>
+  </si>
+  <si>
+    <t>http://www.kuraudia.holdings/common/fig_organization.png</t>
+  </si>
+  <si>
+    <t>http://www.kuraudia.holdings/company/kcs_summary.html</t>
+  </si>
+  <si>
+    <t>http://gift-group.jp/images/organization-chart.svg</t>
+  </si>
+  <si>
+    <t>https://bisyoku-wine.jp/place.php?id=122</t>
+  </si>
+  <si>
+    <t>http://www.clf-net.com/about/info_img/organization.jpg</t>
+  </si>
+  <si>
+    <t>http://npo.web-reigo.com/nerima.html</t>
+  </si>
+  <si>
+    <t>http://www.chuo-birukon.co.jp/profile/org/images/organization.gif</t>
+  </si>
+  <si>
+    <t>https://job-gear.jp/fstg2/kyujin_d.htm?L=BMSDetail&amp;SF=1&amp;ID=A80213543557</t>
+  </si>
+  <si>
+    <t>http://www.meihanshoji.jp/wordpress/wp-content/uploads/2017/05/organization_map.gif</t>
+  </si>
+  <si>
+    <t>http://www.chuo-birukon.co.jp/profile/org/index.html</t>
+  </si>
+  <si>
+    <t>http://www.ucot.co.jp/img/organization_chart.png</t>
+  </si>
+  <si>
+    <t>http://www.ucot.co.jp/info_02.html</t>
+  </si>
+  <si>
+    <t>http://www.jichiro.gr.jp/wp-content/themes/jichiro/images/page-organization-headquarters.jpg</t>
+  </si>
+  <si>
+    <t>http://www.jichiro.gr.jp/about/organization</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/a58d31_e7456cf09086439cb0c0823ff89209ff.png/v1/fill/w_284,h_211,al_c,usm_0.66_1.00_0.01/a58d31_e7456cf09086439cb0c0823ff89209ff.png</t>
+  </si>
+  <si>
+    <t>http://www.meihanshoji.jp/company/organization</t>
+  </si>
+  <si>
+    <t>https://www.ntt-union.or.jp/img/img_organization.png</t>
+  </si>
+  <si>
+    <t>https://www.ntt-union.or.jp/about/organization.php</t>
+  </si>
+  <si>
+    <t>https://tabelog.com/tokyo/A1303/A130301/13023121/</t>
+  </si>
+  <si>
+    <t>https://www.nta.go.jp/about/organization/tokyo/location/tokyo/toshima/photo.jpg</t>
+  </si>
+  <si>
+    <t>https://www.nta.go.jp/about/organization/tokyo/location/tokyo/toshima/index.htm</t>
+  </si>
+  <si>
+    <t>http://www.cfs.co.jp/images/organization.jpg</t>
+  </si>
+  <si>
+    <t>http://www.cfs.co.jp/headoffice.html</t>
+  </si>
+  <si>
+    <t>https://www.yamanashiconsul.co.jp/wp_yc/wp-content/uploads/2016/04/organization-chart_n.png</t>
+  </si>
+  <si>
+    <t>https://www.yamanashiconsul.co.jp/corp-outline/organization</t>
+  </si>
+  <si>
+    <t>https://www.nta.go.jp/about/organization/tokyo/location/tokyo/nakano/map.gif</t>
+  </si>
+  <si>
+    <t>https://www.nta.go.jp/about/organization/tokyo/location/tokyo/nakano/data.htm</t>
+  </si>
+  <si>
+    <t>https://coinvedi.com/wp-content/uploads/2018/04/725_aHR0cHM6Ly9jb2ludGVsZWdyYXBoLmNvbS9zdG9yYWdlL3VwbG9hZHMvdmlldy9iZjkzOTdlNzI5MzUwODM3NjE1NzI5NGM4ZTNjZTk1MC5qcGc3D.jpg</t>
+  </si>
+  <si>
+    <t>https://coinvedi.com/ja/south-africas-central-bank-to-establish-self-regulatory-body-to-oversee-crypto-industry/</t>
+  </si>
+  <si>
+    <t>http://zeimu.seityo-sien.com/images/profile/organization/organization_img_02.png</t>
+  </si>
+  <si>
+    <t>https://hitosara.com/GC0106/tokyo/T021/</t>
+  </si>
+  <si>
+    <t>https://www.yomiuri-yss.co.jp/wp-content/uploads/2018/04/organization_2018040501.png</t>
+  </si>
+  <si>
+    <t>https://www.yomiuri-yss.co.jp/company/outline/</t>
+  </si>
+  <si>
+    <t>http://www.nissui-logistics.jp/organization.jpg</t>
+  </si>
+  <si>
+    <t>http://www.toshima-hp.jp/nursing/message/index.html</t>
+  </si>
+  <si>
+    <t>https://www.nta.go.jp/about/organization/tokyo/location/tokyo/nakano/photo.jpg</t>
+  </si>
+  <si>
+    <t>https://www.nta.go.jp/about/organization/tokyo/location/tokyo/nakano/index.htm</t>
+  </si>
+  <si>
+    <t>http://www.fuzinkaikorea.org/home/image/organization.jpg</t>
+  </si>
+  <si>
+    <t>http://www.fuzinkaikorea.org/icons/app/cms/?html=/home/int1_5.html</t>
+  </si>
+  <si>
+    <t>https://www.kchnet.or.jp/departments/images/organization2017.png</t>
+  </si>
+  <si>
+    <t>https://www.kchnet.or.jp/departments/index.aspx</t>
+  </si>
+  <si>
+    <t>https://jaccnet.zis-ja.com/global-image/chuken/image/organization.gif</t>
+  </si>
+  <si>
+    <t>https://jaccnet.zis-ja.com/d1060000000/d1060300000/outline.html</t>
+  </si>
+  <si>
+    <t>https://jcvisa.info/wp-content/uploads/2017/11/leader-of-chinese-censorship-organization-was-arrested-2.jpg</t>
+  </si>
+  <si>
+    <t>https://jcvisa.info/leader-of-chinese-censorship-organization-was-arrested</t>
+  </si>
+  <si>
+    <t>http://www.fct.co.jp/event/okinawa/images/organization.jpg</t>
+  </si>
+  <si>
+    <t>http://www.fct.co.jp/event/okinawa/aim.html</t>
+  </si>
+  <si>
+    <t>https://www.jaobihirokawanisi.or.jp/products/safety/img/organization.png</t>
+  </si>
+  <si>
+    <t>https://www.jaobihirokawanisi.or.jp/products/safety/</t>
+  </si>
+  <si>
+    <t>https://www.slideshare.net/artonster/high-commitment-high-performance-how-to-build-a-resilient-organization-for-sustained-advantage</t>
+  </si>
+  <si>
+    <t>http://www.murao.com/images/organizationchart.png</t>
+  </si>
+  <si>
+    <t>http://www.murao.com/corp.php?cate=profile</t>
   </si>
 </sst>
 </file>
@@ -2767,7 +4126,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C412"/>
+  <dimension ref="A1:C653"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7285,6 +8644,2651 @@
       </c>
       <c r="C412">
         <v>8</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3">
+      <c r="A413" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="C413">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3">
+      <c r="A414" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="C414">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3">
+      <c r="A415" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="C415">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3">
+      <c r="A416" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="C416">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3">
+      <c r="A417" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="C417">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3">
+      <c r="A418" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C418">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3">
+      <c r="A419" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="C419">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3">
+      <c r="A420" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="C420">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3">
+      <c r="A421" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="C421">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3">
+      <c r="A422" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="C422">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3">
+      <c r="A423" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="C423">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3">
+      <c r="A424" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C424">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3">
+      <c r="A425" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="C425">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3">
+      <c r="A426" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="C426">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3">
+      <c r="A427" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="C427">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3">
+      <c r="A428" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="C428">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3">
+      <c r="A429" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="C429">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3">
+      <c r="A430" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="C430">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3">
+      <c r="A431" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="C431">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3">
+      <c r="A432" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="C432">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3">
+      <c r="A433" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="C433">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3">
+      <c r="A434" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="C434">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3">
+      <c r="A435" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C435">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3">
+      <c r="A436" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="C436">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3">
+      <c r="A437" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="C437">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3">
+      <c r="A438" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="C438">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3">
+      <c r="A439" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="C439">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3">
+      <c r="A440" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="C440">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3">
+      <c r="A441" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="C441">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3">
+      <c r="A442" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="C442">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3">
+      <c r="A443" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="C443">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3">
+      <c r="A444" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="C444">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3">
+      <c r="A445" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="C445">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3">
+      <c r="A446" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="C446">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3">
+      <c r="A447" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="C447">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3">
+      <c r="A448" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="C448">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3">
+      <c r="A449" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="C449">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3">
+      <c r="A450" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="C450">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3">
+      <c r="A451" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="C451">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3">
+      <c r="A452" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="C452">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3">
+      <c r="A453" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="C453">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3">
+      <c r="A454" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="C454">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3">
+      <c r="A455" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="B455" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="C455">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3">
+      <c r="A456" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="C456">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3">
+      <c r="A457" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="B457" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="C457">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3">
+      <c r="A458" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="C458">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3">
+      <c r="A459" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="C459">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3">
+      <c r="A460" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="C460">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3">
+      <c r="A461" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="C461">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3">
+      <c r="A462" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="C462">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3">
+      <c r="A463" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="C463">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3">
+      <c r="A464" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="C464">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3">
+      <c r="A465" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="B465" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="C465">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3">
+      <c r="A466" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="C466">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3">
+      <c r="A467" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C467">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3">
+      <c r="A468" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="C468">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3">
+      <c r="A469" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="C469">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3">
+      <c r="A470" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="C470">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3">
+      <c r="A471" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="C471">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3">
+      <c r="A472" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="C472">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3">
+      <c r="A473" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="B473" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="C473">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3">
+      <c r="A474" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="C474">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3">
+      <c r="A475" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B475" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C475">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3">
+      <c r="A476" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="C476">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3">
+      <c r="A477" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="C477">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3">
+      <c r="A478" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="C478">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3">
+      <c r="A479" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B479" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="C479">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3">
+      <c r="A480" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="C480">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3">
+      <c r="A481" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="B481" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="C481">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3">
+      <c r="A482" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="B482" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="C482">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3">
+      <c r="A483" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="B483" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="C483">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3">
+      <c r="A484" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="B484" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="C484">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3">
+      <c r="A485" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="B485" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="C485">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3">
+      <c r="A486" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="B486" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="C486">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3">
+      <c r="A487" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="B487" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="C487">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3">
+      <c r="A488" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="B488" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="C488">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3">
+      <c r="A489" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="B489" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="C489">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3">
+      <c r="A490" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="B490" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="C490">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3">
+      <c r="A491" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="B491" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="C491">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3">
+      <c r="A492" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="B492" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="C492">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3">
+      <c r="A493" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="B493" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="C493">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3">
+      <c r="A494" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="B494" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="C494">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3">
+      <c r="A495" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="B495" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="C495">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3">
+      <c r="A496" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="C496">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3">
+      <c r="A497" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="B497" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="C497">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3">
+      <c r="A498" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="C498">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3">
+      <c r="A499" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="B499" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="C499">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3">
+      <c r="A500" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="B500" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="C500">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3">
+      <c r="A501" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="B501" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="C501">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3">
+      <c r="A502" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="B502" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="C502">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3">
+      <c r="A503" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B503" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="C503">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3">
+      <c r="A504" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="B504" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="C504">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3">
+      <c r="A505" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="B505" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="C505">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3">
+      <c r="A506" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="B506" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="C506">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3">
+      <c r="A507" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="B507" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C507">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3">
+      <c r="A508" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="B508" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C508">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3">
+      <c r="A509" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="B509" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C509">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3">
+      <c r="A510" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="B510" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="C510">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3">
+      <c r="A511" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="B511" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="C511">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3">
+      <c r="A512" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="B512" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="C512">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3">
+      <c r="A513" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="B513" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="C513">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3">
+      <c r="A514" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="B514" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="C514">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3">
+      <c r="A515" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="B515" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="C515">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3">
+      <c r="A516" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="B516" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="C516">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3">
+      <c r="A517" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="B517" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C517">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3">
+      <c r="A518" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B518" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C518">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3">
+      <c r="A519" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B519" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="C519">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3">
+      <c r="A520" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B520" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C520">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3">
+      <c r="A521" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B521" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C521">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3">
+      <c r="A522" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B522" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C522">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3">
+      <c r="A523" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B523" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C523">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3">
+      <c r="A524" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B524" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C524">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3">
+      <c r="A525" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B525" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C525">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3">
+      <c r="A526" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B526" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C526">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3">
+      <c r="A527" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B527" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C527">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3">
+      <c r="A528" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B528" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C528">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3">
+      <c r="A529" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B529" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C529">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3">
+      <c r="A530" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B530" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C530">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3">
+      <c r="A531" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B531" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C531">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3">
+      <c r="A532" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B532" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C532">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3">
+      <c r="A533" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B533" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C533">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3">
+      <c r="A534" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B534" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C534">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3">
+      <c r="A535" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B535" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C535">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3">
+      <c r="A536" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B536" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C536">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3">
+      <c r="A537" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B537" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C537">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3">
+      <c r="A538" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B538" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C538">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3">
+      <c r="A539" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B539" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C539">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3">
+      <c r="A540" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B540" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C540">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3">
+      <c r="A541" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B541" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C541">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3">
+      <c r="A542" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B542" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C542">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3">
+      <c r="A543" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B543" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C543">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3">
+      <c r="A544" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B544" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C544">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3">
+      <c r="A545" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B545" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C545">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3">
+      <c r="A546" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B546" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C546">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3">
+      <c r="A547" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B547" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C547">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3">
+      <c r="A548" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B548" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C548">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3">
+      <c r="A549" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B549" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C549">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3">
+      <c r="A550" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B550" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C550">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3">
+      <c r="A551" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B551" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C551">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3">
+      <c r="A552" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B552" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C552">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3">
+      <c r="A553" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B553" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C553">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3">
+      <c r="A554" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B554" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C554">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3">
+      <c r="A555" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B555" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C555">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3">
+      <c r="A556" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B556" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C556">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3">
+      <c r="A557" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B557" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C557">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3">
+      <c r="A558" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B558" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C558">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3">
+      <c r="A559" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B559" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C559">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3">
+      <c r="A560" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B560" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C560">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3">
+      <c r="A561" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B561" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C561">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3">
+      <c r="A562" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B562" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C562">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3">
+      <c r="A563" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B563" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C563">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3">
+      <c r="A564" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B564" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C564">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3">
+      <c r="A565" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B565" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C565">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3">
+      <c r="A566" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B566" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C566">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3">
+      <c r="A567" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B567" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C567">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3">
+      <c r="A568" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B568" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C568">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3">
+      <c r="A569" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B569" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C569">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3">
+      <c r="A570" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B570" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C570">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3">
+      <c r="A571" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B571" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C571">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3">
+      <c r="A572" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B572" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C572">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3">
+      <c r="A573" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B573" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C573">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3">
+      <c r="A574" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B574" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C574">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3">
+      <c r="A575" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B575" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C575">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3">
+      <c r="A576" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B576" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C576">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3">
+      <c r="A577" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B577" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C577">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3">
+      <c r="A578" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B578" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C578">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3">
+      <c r="A579" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B579" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C579">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3">
+      <c r="A580" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B580" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C580">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3">
+      <c r="A581" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B581" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C581">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3">
+      <c r="A582" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B582" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C582">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3">
+      <c r="A583" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B583" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C583">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3">
+      <c r="A584" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B584" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C584">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3">
+      <c r="A585" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B585" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C585">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3">
+      <c r="A586" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B586" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C586">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3">
+      <c r="A587" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B587" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C587">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3">
+      <c r="A588" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B588" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C588">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3">
+      <c r="A589" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B589" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C589">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3">
+      <c r="A590" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B590" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C590">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3">
+      <c r="A591" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B591" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C591">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3">
+      <c r="A592" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B592" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C592">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3">
+      <c r="A593" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B593" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C593">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3">
+      <c r="A594" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B594" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C594">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3">
+      <c r="A595" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B595" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C595">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3">
+      <c r="B596" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="C596">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3">
+      <c r="A597" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B597" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C597">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3">
+      <c r="A598" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B598" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C598">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3">
+      <c r="A599" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B599" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C599">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3">
+      <c r="A600" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B600" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C600">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3">
+      <c r="A601" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B601" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C601">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3">
+      <c r="A602" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B602" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C602">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3">
+      <c r="A603" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B603" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C603">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3">
+      <c r="A604" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B604" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C604">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3">
+      <c r="A605" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B605" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C605">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3">
+      <c r="A606" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B606" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C606">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3">
+      <c r="A607" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B607" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C607">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3">
+      <c r="A608" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B608" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C608">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3">
+      <c r="A609" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="B609" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C609">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3">
+      <c r="A610" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B610" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C610">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3">
+      <c r="A611" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B611" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C611">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3">
+      <c r="A612" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B612" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C612">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3">
+      <c r="A613" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B613" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C613">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3">
+      <c r="A614" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B614" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C614">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3">
+      <c r="A615" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B615" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C615">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3">
+      <c r="A616" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B616" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C616">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3">
+      <c r="A617" s="1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B617" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C617">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3">
+      <c r="A618" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B618" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C618">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3">
+      <c r="A619" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B619" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C619">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3">
+      <c r="A620" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B620" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C620">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3">
+      <c r="A621" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B621" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C621">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3">
+      <c r="A622" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="B622" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C622">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3">
+      <c r="A623" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B623" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C623">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3">
+      <c r="A624" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B624" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C624">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3">
+      <c r="A625" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B625" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C625">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3">
+      <c r="A626" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B626" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C626">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3">
+      <c r="A627" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B627" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C627">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3">
+      <c r="A628" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B628" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C628">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3">
+      <c r="A629" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B629" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C629">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3">
+      <c r="A630" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B630" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C630">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3">
+      <c r="A631" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B631" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C631">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3">
+      <c r="A632" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B632" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C632">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3">
+      <c r="A633" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B633" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C633">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3">
+      <c r="A634" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B634" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C634">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3">
+      <c r="A635" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B635" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C635">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3">
+      <c r="A636" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B636" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C636">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3">
+      <c r="A637" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B637" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C637">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3">
+      <c r="A638" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B638" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C638">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3">
+      <c r="A639" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B639" s="1" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C639">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3">
+      <c r="A640" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B640" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C640">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3">
+      <c r="A641" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B641" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C641">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3">
+      <c r="A642" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B642" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C642">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3">
+      <c r="A643" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B643" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C643">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3">
+      <c r="A644" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B644" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C644">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3">
+      <c r="A645" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B645" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C645">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3">
+      <c r="A646" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B646" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C646">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3">
+      <c r="A647" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B647" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C647">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3">
+      <c r="A648" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B648" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C648">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3">
+      <c r="A649" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B649" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C649">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3">
+      <c r="A650" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B650" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C650">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3">
+      <c r="A651" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B651" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C651">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3">
+      <c r="B652" s="1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C652">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3">
+      <c r="A653" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B653" s="1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C653">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -8107,6 +12111,486 @@
     <hyperlink ref="B411" r:id="rId816"/>
     <hyperlink ref="A412" r:id="rId817"/>
     <hyperlink ref="B412" r:id="rId818"/>
+    <hyperlink ref="A413" r:id="rId819"/>
+    <hyperlink ref="B413" r:id="rId820"/>
+    <hyperlink ref="A414" r:id="rId821"/>
+    <hyperlink ref="B414" r:id="rId822"/>
+    <hyperlink ref="A415" r:id="rId823"/>
+    <hyperlink ref="B415" r:id="rId824"/>
+    <hyperlink ref="A416" r:id="rId825"/>
+    <hyperlink ref="B416" r:id="rId826"/>
+    <hyperlink ref="A417" r:id="rId827"/>
+    <hyperlink ref="B417" r:id="rId828"/>
+    <hyperlink ref="A418" r:id="rId829"/>
+    <hyperlink ref="B418" r:id="rId830"/>
+    <hyperlink ref="A419" r:id="rId831"/>
+    <hyperlink ref="B419" r:id="rId832"/>
+    <hyperlink ref="A420" r:id="rId833"/>
+    <hyperlink ref="B420" r:id="rId834"/>
+    <hyperlink ref="A421" r:id="rId835"/>
+    <hyperlink ref="B421" r:id="rId836"/>
+    <hyperlink ref="A422" r:id="rId837"/>
+    <hyperlink ref="B422" r:id="rId838"/>
+    <hyperlink ref="A423" r:id="rId839"/>
+    <hyperlink ref="B423" r:id="rId840"/>
+    <hyperlink ref="A424" r:id="rId841"/>
+    <hyperlink ref="B424" r:id="rId842"/>
+    <hyperlink ref="A425" r:id="rId843"/>
+    <hyperlink ref="B425" r:id="rId844"/>
+    <hyperlink ref="A426" r:id="rId845"/>
+    <hyperlink ref="B426" r:id="rId846"/>
+    <hyperlink ref="A427" r:id="rId847"/>
+    <hyperlink ref="B427" r:id="rId848"/>
+    <hyperlink ref="A428" r:id="rId849"/>
+    <hyperlink ref="B428" r:id="rId850"/>
+    <hyperlink ref="A429" r:id="rId851"/>
+    <hyperlink ref="B429" r:id="rId852"/>
+    <hyperlink ref="A430" r:id="rId853"/>
+    <hyperlink ref="B430" r:id="rId854"/>
+    <hyperlink ref="A431" r:id="rId855"/>
+    <hyperlink ref="B431" r:id="rId856"/>
+    <hyperlink ref="A432" r:id="rId857"/>
+    <hyperlink ref="B432" r:id="rId858"/>
+    <hyperlink ref="A433" r:id="rId859"/>
+    <hyperlink ref="B433" r:id="rId860"/>
+    <hyperlink ref="A434" r:id="rId861"/>
+    <hyperlink ref="B434" r:id="rId862"/>
+    <hyperlink ref="A435" r:id="rId863"/>
+    <hyperlink ref="B435" r:id="rId864"/>
+    <hyperlink ref="A436" r:id="rId865"/>
+    <hyperlink ref="B436" r:id="rId866"/>
+    <hyperlink ref="A437" r:id="rId867"/>
+    <hyperlink ref="B437" r:id="rId868"/>
+    <hyperlink ref="A438" r:id="rId869"/>
+    <hyperlink ref="B438" r:id="rId870"/>
+    <hyperlink ref="A439" r:id="rId871"/>
+    <hyperlink ref="B439" r:id="rId872"/>
+    <hyperlink ref="A440" r:id="rId873"/>
+    <hyperlink ref="B440" r:id="rId874"/>
+    <hyperlink ref="A441" r:id="rId875"/>
+    <hyperlink ref="B441" r:id="rId876"/>
+    <hyperlink ref="A442" r:id="rId877"/>
+    <hyperlink ref="B442" r:id="rId878"/>
+    <hyperlink ref="A443" r:id="rId879"/>
+    <hyperlink ref="B443" r:id="rId880"/>
+    <hyperlink ref="A444" r:id="rId881"/>
+    <hyperlink ref="B444" r:id="rId882"/>
+    <hyperlink ref="A445" r:id="rId883"/>
+    <hyperlink ref="B445" r:id="rId884"/>
+    <hyperlink ref="A446" r:id="rId885"/>
+    <hyperlink ref="B446" r:id="rId886"/>
+    <hyperlink ref="A447" r:id="rId887"/>
+    <hyperlink ref="B447" r:id="rId888"/>
+    <hyperlink ref="A448" r:id="rId889"/>
+    <hyperlink ref="B448" r:id="rId890"/>
+    <hyperlink ref="A449" r:id="rId891"/>
+    <hyperlink ref="B449" r:id="rId892"/>
+    <hyperlink ref="A450" r:id="rId893"/>
+    <hyperlink ref="B450" r:id="rId894"/>
+    <hyperlink ref="A451" r:id="rId895"/>
+    <hyperlink ref="B451" r:id="rId896"/>
+    <hyperlink ref="A452" r:id="rId897"/>
+    <hyperlink ref="B452" r:id="rId898"/>
+    <hyperlink ref="A453" r:id="rId899"/>
+    <hyperlink ref="B453" r:id="rId900"/>
+    <hyperlink ref="A454" r:id="rId901"/>
+    <hyperlink ref="B454" r:id="rId902"/>
+    <hyperlink ref="A455" r:id="rId903"/>
+    <hyperlink ref="B455" r:id="rId904"/>
+    <hyperlink ref="A456" r:id="rId905"/>
+    <hyperlink ref="B456" r:id="rId906"/>
+    <hyperlink ref="A457" r:id="rId907"/>
+    <hyperlink ref="B457" r:id="rId908"/>
+    <hyperlink ref="A458" r:id="rId909"/>
+    <hyperlink ref="B458" r:id="rId910"/>
+    <hyperlink ref="A459" r:id="rId911"/>
+    <hyperlink ref="B459" r:id="rId912"/>
+    <hyperlink ref="A460" r:id="rId913"/>
+    <hyperlink ref="B460" r:id="rId914"/>
+    <hyperlink ref="A461" r:id="rId915"/>
+    <hyperlink ref="B461" r:id="rId916"/>
+    <hyperlink ref="A462" r:id="rId917"/>
+    <hyperlink ref="B462" r:id="rId918"/>
+    <hyperlink ref="A463" r:id="rId919"/>
+    <hyperlink ref="B463" r:id="rId920"/>
+    <hyperlink ref="A464" r:id="rId921"/>
+    <hyperlink ref="B464" r:id="rId922"/>
+    <hyperlink ref="A465" r:id="rId923"/>
+    <hyperlink ref="B465" r:id="rId924"/>
+    <hyperlink ref="A466" r:id="rId925"/>
+    <hyperlink ref="B466" r:id="rId926"/>
+    <hyperlink ref="A467" r:id="rId927"/>
+    <hyperlink ref="B467" r:id="rId928"/>
+    <hyperlink ref="A468" r:id="rId929"/>
+    <hyperlink ref="B468" r:id="rId930"/>
+    <hyperlink ref="A469" r:id="rId931"/>
+    <hyperlink ref="B469" r:id="rId932"/>
+    <hyperlink ref="A470" r:id="rId933"/>
+    <hyperlink ref="B470" r:id="rId934"/>
+    <hyperlink ref="A471" r:id="rId935"/>
+    <hyperlink ref="B471" r:id="rId936"/>
+    <hyperlink ref="A472" r:id="rId937"/>
+    <hyperlink ref="B472" r:id="rId938"/>
+    <hyperlink ref="A473" r:id="rId939"/>
+    <hyperlink ref="B473" r:id="rId940"/>
+    <hyperlink ref="A474" r:id="rId941"/>
+    <hyperlink ref="B474" r:id="rId942"/>
+    <hyperlink ref="A475" r:id="rId943"/>
+    <hyperlink ref="B475" r:id="rId944"/>
+    <hyperlink ref="A476" r:id="rId945"/>
+    <hyperlink ref="B476" r:id="rId946"/>
+    <hyperlink ref="A477" r:id="rId947"/>
+    <hyperlink ref="B477" r:id="rId948"/>
+    <hyperlink ref="A478" r:id="rId949"/>
+    <hyperlink ref="B478" r:id="rId950"/>
+    <hyperlink ref="A479" r:id="rId951"/>
+    <hyperlink ref="B479" r:id="rId952"/>
+    <hyperlink ref="A480" r:id="rId953"/>
+    <hyperlink ref="B480" r:id="rId954"/>
+    <hyperlink ref="A481" r:id="rId955"/>
+    <hyperlink ref="B481" r:id="rId956"/>
+    <hyperlink ref="A482" r:id="rId957"/>
+    <hyperlink ref="B482" r:id="rId958"/>
+    <hyperlink ref="A483" r:id="rId959"/>
+    <hyperlink ref="B483" r:id="rId960"/>
+    <hyperlink ref="A484" r:id="rId961"/>
+    <hyperlink ref="B484" r:id="rId962"/>
+    <hyperlink ref="A485" r:id="rId963"/>
+    <hyperlink ref="B485" r:id="rId964"/>
+    <hyperlink ref="A486" r:id="rId965"/>
+    <hyperlink ref="B486" r:id="rId966"/>
+    <hyperlink ref="A487" r:id="rId967"/>
+    <hyperlink ref="B487" r:id="rId968"/>
+    <hyperlink ref="A488" r:id="rId969"/>
+    <hyperlink ref="B488" r:id="rId970"/>
+    <hyperlink ref="A489" r:id="rId971"/>
+    <hyperlink ref="B489" r:id="rId972"/>
+    <hyperlink ref="A490" r:id="rId973"/>
+    <hyperlink ref="B490" r:id="rId974"/>
+    <hyperlink ref="A491" r:id="rId975"/>
+    <hyperlink ref="B491" r:id="rId976"/>
+    <hyperlink ref="A492" r:id="rId977"/>
+    <hyperlink ref="B492" r:id="rId978"/>
+    <hyperlink ref="A493" r:id="rId979"/>
+    <hyperlink ref="B493" r:id="rId980"/>
+    <hyperlink ref="A494" r:id="rId981"/>
+    <hyperlink ref="B494" r:id="rId982"/>
+    <hyperlink ref="A495" r:id="rId983"/>
+    <hyperlink ref="B495" r:id="rId984"/>
+    <hyperlink ref="A496" r:id="rId985"/>
+    <hyperlink ref="B496" r:id="rId986"/>
+    <hyperlink ref="A497" r:id="rId987"/>
+    <hyperlink ref="B497" r:id="rId988"/>
+    <hyperlink ref="A498" r:id="rId989"/>
+    <hyperlink ref="B498" r:id="rId990"/>
+    <hyperlink ref="A499" r:id="rId991"/>
+    <hyperlink ref="B499" r:id="rId992"/>
+    <hyperlink ref="A500" r:id="rId993"/>
+    <hyperlink ref="B500" r:id="rId994"/>
+    <hyperlink ref="A501" r:id="rId995"/>
+    <hyperlink ref="B501" r:id="rId996"/>
+    <hyperlink ref="A502" r:id="rId997"/>
+    <hyperlink ref="B502" r:id="rId998"/>
+    <hyperlink ref="A503" r:id="rId999"/>
+    <hyperlink ref="B503" r:id="rId1000"/>
+    <hyperlink ref="A504" r:id="rId1001"/>
+    <hyperlink ref="B504" r:id="rId1002"/>
+    <hyperlink ref="A505" r:id="rId1003"/>
+    <hyperlink ref="B505" r:id="rId1004"/>
+    <hyperlink ref="A506" r:id="rId1005"/>
+    <hyperlink ref="B506" r:id="rId1006"/>
+    <hyperlink ref="A507" r:id="rId1007"/>
+    <hyperlink ref="B507" r:id="rId1008"/>
+    <hyperlink ref="A508" r:id="rId1009"/>
+    <hyperlink ref="B508" r:id="rId1010"/>
+    <hyperlink ref="A509" r:id="rId1011"/>
+    <hyperlink ref="B509" r:id="rId1012"/>
+    <hyperlink ref="A510" r:id="rId1013"/>
+    <hyperlink ref="B510" r:id="rId1014"/>
+    <hyperlink ref="A511" r:id="rId1015"/>
+    <hyperlink ref="B511" r:id="rId1016"/>
+    <hyperlink ref="A512" r:id="rId1017"/>
+    <hyperlink ref="B512" r:id="rId1018"/>
+    <hyperlink ref="A513" r:id="rId1019"/>
+    <hyperlink ref="B513" r:id="rId1020"/>
+    <hyperlink ref="A514" r:id="rId1021"/>
+    <hyperlink ref="B514" r:id="rId1022"/>
+    <hyperlink ref="A515" r:id="rId1023"/>
+    <hyperlink ref="B515" r:id="rId1024"/>
+    <hyperlink ref="A516" r:id="rId1025"/>
+    <hyperlink ref="B516" r:id="rId1026"/>
+    <hyperlink ref="A517" r:id="rId1027"/>
+    <hyperlink ref="B517" r:id="rId1028"/>
+    <hyperlink ref="A518" r:id="rId1029"/>
+    <hyperlink ref="B518" r:id="rId1030"/>
+    <hyperlink ref="A519" r:id="rId1031"/>
+    <hyperlink ref="B519" r:id="rId1032"/>
+    <hyperlink ref="A520" r:id="rId1033"/>
+    <hyperlink ref="B520" r:id="rId1034"/>
+    <hyperlink ref="A521" r:id="rId1035"/>
+    <hyperlink ref="B521" r:id="rId1036"/>
+    <hyperlink ref="A522" r:id="rId1037"/>
+    <hyperlink ref="B522" r:id="rId1038"/>
+    <hyperlink ref="A523" r:id="rId1039"/>
+    <hyperlink ref="B523" r:id="rId1040"/>
+    <hyperlink ref="A524" r:id="rId1041"/>
+    <hyperlink ref="B524" r:id="rId1042"/>
+    <hyperlink ref="A525" r:id="rId1043"/>
+    <hyperlink ref="B525" r:id="rId1044"/>
+    <hyperlink ref="A526" r:id="rId1045"/>
+    <hyperlink ref="B526" r:id="rId1046"/>
+    <hyperlink ref="A527" r:id="rId1047"/>
+    <hyperlink ref="B527" r:id="rId1048"/>
+    <hyperlink ref="A528" r:id="rId1049"/>
+    <hyperlink ref="B528" r:id="rId1050"/>
+    <hyperlink ref="A529" r:id="rId1051"/>
+    <hyperlink ref="B529" r:id="rId1052"/>
+    <hyperlink ref="A530" r:id="rId1053"/>
+    <hyperlink ref="B530" r:id="rId1054"/>
+    <hyperlink ref="A531" r:id="rId1055"/>
+    <hyperlink ref="B531" r:id="rId1056"/>
+    <hyperlink ref="A532" r:id="rId1057"/>
+    <hyperlink ref="B532" r:id="rId1058"/>
+    <hyperlink ref="A533" r:id="rId1059"/>
+    <hyperlink ref="B533" r:id="rId1060"/>
+    <hyperlink ref="A534" r:id="rId1061"/>
+    <hyperlink ref="B534" r:id="rId1062"/>
+    <hyperlink ref="A535" r:id="rId1063"/>
+    <hyperlink ref="B535" r:id="rId1064"/>
+    <hyperlink ref="A536" r:id="rId1065"/>
+    <hyperlink ref="B536" r:id="rId1066"/>
+    <hyperlink ref="A537" r:id="rId1067"/>
+    <hyperlink ref="B537" r:id="rId1068"/>
+    <hyperlink ref="A538" r:id="rId1069"/>
+    <hyperlink ref="B538" r:id="rId1070"/>
+    <hyperlink ref="A539" r:id="rId1071"/>
+    <hyperlink ref="B539" r:id="rId1072"/>
+    <hyperlink ref="A540" r:id="rId1073"/>
+    <hyperlink ref="B540" r:id="rId1074"/>
+    <hyperlink ref="A541" r:id="rId1075"/>
+    <hyperlink ref="B541" r:id="rId1076"/>
+    <hyperlink ref="A542" r:id="rId1077"/>
+    <hyperlink ref="B542" r:id="rId1078"/>
+    <hyperlink ref="A543" r:id="rId1079"/>
+    <hyperlink ref="B543" r:id="rId1080"/>
+    <hyperlink ref="A544" r:id="rId1081"/>
+    <hyperlink ref="B544" r:id="rId1082"/>
+    <hyperlink ref="A545" r:id="rId1083"/>
+    <hyperlink ref="B545" r:id="rId1084"/>
+    <hyperlink ref="A546" r:id="rId1085"/>
+    <hyperlink ref="B546" r:id="rId1086"/>
+    <hyperlink ref="A547" r:id="rId1087"/>
+    <hyperlink ref="B547" r:id="rId1088"/>
+    <hyperlink ref="A548" r:id="rId1089"/>
+    <hyperlink ref="B548" r:id="rId1090"/>
+    <hyperlink ref="A549" r:id="rId1091"/>
+    <hyperlink ref="B549" r:id="rId1092"/>
+    <hyperlink ref="A550" r:id="rId1093"/>
+    <hyperlink ref="B550" r:id="rId1094"/>
+    <hyperlink ref="A551" r:id="rId1095"/>
+    <hyperlink ref="B551" r:id="rId1096"/>
+    <hyperlink ref="A552" r:id="rId1097"/>
+    <hyperlink ref="B552" r:id="rId1098"/>
+    <hyperlink ref="A553" r:id="rId1099"/>
+    <hyperlink ref="B553" r:id="rId1100"/>
+    <hyperlink ref="A554" r:id="rId1101"/>
+    <hyperlink ref="B554" r:id="rId1102"/>
+    <hyperlink ref="A555" r:id="rId1103"/>
+    <hyperlink ref="B555" r:id="rId1104"/>
+    <hyperlink ref="A556" r:id="rId1105"/>
+    <hyperlink ref="B556" r:id="rId1106"/>
+    <hyperlink ref="A557" r:id="rId1107"/>
+    <hyperlink ref="B557" r:id="rId1108"/>
+    <hyperlink ref="A558" r:id="rId1109"/>
+    <hyperlink ref="B558" r:id="rId1110"/>
+    <hyperlink ref="A559" r:id="rId1111"/>
+    <hyperlink ref="B559" r:id="rId1112"/>
+    <hyperlink ref="A560" r:id="rId1113"/>
+    <hyperlink ref="B560" r:id="rId1114"/>
+    <hyperlink ref="A561" r:id="rId1115"/>
+    <hyperlink ref="B561" r:id="rId1116"/>
+    <hyperlink ref="A562" r:id="rId1117"/>
+    <hyperlink ref="B562" r:id="rId1118"/>
+    <hyperlink ref="A563" r:id="rId1119"/>
+    <hyperlink ref="B563" r:id="rId1120"/>
+    <hyperlink ref="A564" r:id="rId1121"/>
+    <hyperlink ref="B564" r:id="rId1122"/>
+    <hyperlink ref="A565" r:id="rId1123"/>
+    <hyperlink ref="B565" r:id="rId1124"/>
+    <hyperlink ref="A566" r:id="rId1125"/>
+    <hyperlink ref="B566" r:id="rId1126"/>
+    <hyperlink ref="A567" r:id="rId1127"/>
+    <hyperlink ref="B567" r:id="rId1128"/>
+    <hyperlink ref="A568" r:id="rId1129"/>
+    <hyperlink ref="B568" r:id="rId1130"/>
+    <hyperlink ref="A569" r:id="rId1131"/>
+    <hyperlink ref="B569" r:id="rId1132"/>
+    <hyperlink ref="A570" r:id="rId1133"/>
+    <hyperlink ref="B570" r:id="rId1134"/>
+    <hyperlink ref="A571" r:id="rId1135"/>
+    <hyperlink ref="B571" r:id="rId1136"/>
+    <hyperlink ref="A572" r:id="rId1137"/>
+    <hyperlink ref="B572" r:id="rId1138"/>
+    <hyperlink ref="A573" r:id="rId1139"/>
+    <hyperlink ref="B573" r:id="rId1140"/>
+    <hyperlink ref="A574" r:id="rId1141"/>
+    <hyperlink ref="B574" r:id="rId1142"/>
+    <hyperlink ref="A575" r:id="rId1143"/>
+    <hyperlink ref="B575" r:id="rId1144"/>
+    <hyperlink ref="A576" r:id="rId1145"/>
+    <hyperlink ref="B576" r:id="rId1146"/>
+    <hyperlink ref="A577" r:id="rId1147"/>
+    <hyperlink ref="B577" r:id="rId1148"/>
+    <hyperlink ref="A578" r:id="rId1149"/>
+    <hyperlink ref="B578" r:id="rId1150"/>
+    <hyperlink ref="A579" r:id="rId1151"/>
+    <hyperlink ref="B579" r:id="rId1152"/>
+    <hyperlink ref="A580" r:id="rId1153"/>
+    <hyperlink ref="B580" r:id="rId1154"/>
+    <hyperlink ref="A581" r:id="rId1155"/>
+    <hyperlink ref="B581" r:id="rId1156"/>
+    <hyperlink ref="A582" r:id="rId1157"/>
+    <hyperlink ref="B582" r:id="rId1158"/>
+    <hyperlink ref="A583" r:id="rId1159"/>
+    <hyperlink ref="B583" r:id="rId1160"/>
+    <hyperlink ref="A584" r:id="rId1161"/>
+    <hyperlink ref="B584" r:id="rId1162"/>
+    <hyperlink ref="A585" r:id="rId1163"/>
+    <hyperlink ref="B585" r:id="rId1164"/>
+    <hyperlink ref="A586" r:id="rId1165"/>
+    <hyperlink ref="B586" r:id="rId1166"/>
+    <hyperlink ref="A587" r:id="rId1167"/>
+    <hyperlink ref="B587" r:id="rId1168"/>
+    <hyperlink ref="A588" r:id="rId1169"/>
+    <hyperlink ref="B588" r:id="rId1170"/>
+    <hyperlink ref="A589" r:id="rId1171"/>
+    <hyperlink ref="B589" r:id="rId1172"/>
+    <hyperlink ref="A590" r:id="rId1173"/>
+    <hyperlink ref="B590" r:id="rId1174"/>
+    <hyperlink ref="A591" r:id="rId1175"/>
+    <hyperlink ref="B591" r:id="rId1176"/>
+    <hyperlink ref="A592" r:id="rId1177"/>
+    <hyperlink ref="B592" r:id="rId1178"/>
+    <hyperlink ref="A593" r:id="rId1179"/>
+    <hyperlink ref="B593" r:id="rId1180"/>
+    <hyperlink ref="A594" r:id="rId1181"/>
+    <hyperlink ref="B594" r:id="rId1182"/>
+    <hyperlink ref="A595" r:id="rId1183"/>
+    <hyperlink ref="B595" r:id="rId1184"/>
+    <hyperlink ref="B596" r:id="rId1185"/>
+    <hyperlink ref="A597" r:id="rId1186"/>
+    <hyperlink ref="B597" r:id="rId1187"/>
+    <hyperlink ref="A598" r:id="rId1188"/>
+    <hyperlink ref="B598" r:id="rId1189"/>
+    <hyperlink ref="A599" r:id="rId1190"/>
+    <hyperlink ref="B599" r:id="rId1191"/>
+    <hyperlink ref="A600" r:id="rId1192"/>
+    <hyperlink ref="B600" r:id="rId1193"/>
+    <hyperlink ref="A601" r:id="rId1194"/>
+    <hyperlink ref="B601" r:id="rId1195"/>
+    <hyperlink ref="A602" r:id="rId1196"/>
+    <hyperlink ref="B602" r:id="rId1197"/>
+    <hyperlink ref="A603" r:id="rId1198"/>
+    <hyperlink ref="B603" r:id="rId1199"/>
+    <hyperlink ref="A604" r:id="rId1200"/>
+    <hyperlink ref="B604" r:id="rId1201"/>
+    <hyperlink ref="A605" r:id="rId1202"/>
+    <hyperlink ref="B605" r:id="rId1203"/>
+    <hyperlink ref="A606" r:id="rId1204"/>
+    <hyperlink ref="B606" r:id="rId1205"/>
+    <hyperlink ref="A607" r:id="rId1206"/>
+    <hyperlink ref="B607" r:id="rId1207"/>
+    <hyperlink ref="A608" r:id="rId1208"/>
+    <hyperlink ref="B608" r:id="rId1209"/>
+    <hyperlink ref="A609" r:id="rId1210"/>
+    <hyperlink ref="B609" r:id="rId1211"/>
+    <hyperlink ref="A610" r:id="rId1212"/>
+    <hyperlink ref="B610" r:id="rId1213"/>
+    <hyperlink ref="A611" r:id="rId1214"/>
+    <hyperlink ref="B611" r:id="rId1215"/>
+    <hyperlink ref="A612" r:id="rId1216"/>
+    <hyperlink ref="B612" r:id="rId1217"/>
+    <hyperlink ref="A613" r:id="rId1218"/>
+    <hyperlink ref="B613" r:id="rId1219"/>
+    <hyperlink ref="A614" r:id="rId1220"/>
+    <hyperlink ref="B614" r:id="rId1221"/>
+    <hyperlink ref="A615" r:id="rId1222"/>
+    <hyperlink ref="B615" r:id="rId1223"/>
+    <hyperlink ref="A616" r:id="rId1224"/>
+    <hyperlink ref="B616" r:id="rId1225"/>
+    <hyperlink ref="A617" r:id="rId1226"/>
+    <hyperlink ref="B617" r:id="rId1227"/>
+    <hyperlink ref="A618" r:id="rId1228"/>
+    <hyperlink ref="B618" r:id="rId1229"/>
+    <hyperlink ref="A619" r:id="rId1230"/>
+    <hyperlink ref="B619" r:id="rId1231"/>
+    <hyperlink ref="A620" r:id="rId1232"/>
+    <hyperlink ref="B620" r:id="rId1233"/>
+    <hyperlink ref="A621" r:id="rId1234"/>
+    <hyperlink ref="B621" r:id="rId1235"/>
+    <hyperlink ref="A622" r:id="rId1236"/>
+    <hyperlink ref="B622" r:id="rId1237"/>
+    <hyperlink ref="A623" r:id="rId1238"/>
+    <hyperlink ref="B623" r:id="rId1239"/>
+    <hyperlink ref="A624" r:id="rId1240"/>
+    <hyperlink ref="B624" r:id="rId1241"/>
+    <hyperlink ref="A625" r:id="rId1242"/>
+    <hyperlink ref="B625" r:id="rId1243"/>
+    <hyperlink ref="A626" r:id="rId1244"/>
+    <hyperlink ref="B626" r:id="rId1245"/>
+    <hyperlink ref="A627" r:id="rId1246"/>
+    <hyperlink ref="B627" r:id="rId1247"/>
+    <hyperlink ref="A628" r:id="rId1248"/>
+    <hyperlink ref="B628" r:id="rId1249"/>
+    <hyperlink ref="A629" r:id="rId1250"/>
+    <hyperlink ref="B629" r:id="rId1251"/>
+    <hyperlink ref="A630" r:id="rId1252"/>
+    <hyperlink ref="B630" r:id="rId1253"/>
+    <hyperlink ref="A631" r:id="rId1254"/>
+    <hyperlink ref="B631" r:id="rId1255"/>
+    <hyperlink ref="A632" r:id="rId1256"/>
+    <hyperlink ref="B632" r:id="rId1257"/>
+    <hyperlink ref="A633" r:id="rId1258"/>
+    <hyperlink ref="B633" r:id="rId1259"/>
+    <hyperlink ref="A634" r:id="rId1260"/>
+    <hyperlink ref="B634" r:id="rId1261"/>
+    <hyperlink ref="A635" r:id="rId1262"/>
+    <hyperlink ref="B635" r:id="rId1263"/>
+    <hyperlink ref="A636" r:id="rId1264"/>
+    <hyperlink ref="B636" r:id="rId1265"/>
+    <hyperlink ref="A637" r:id="rId1266"/>
+    <hyperlink ref="B637" r:id="rId1267"/>
+    <hyperlink ref="A638" r:id="rId1268"/>
+    <hyperlink ref="B638" r:id="rId1269"/>
+    <hyperlink ref="A639" r:id="rId1270"/>
+    <hyperlink ref="B639" r:id="rId1271"/>
+    <hyperlink ref="A640" r:id="rId1272"/>
+    <hyperlink ref="B640" r:id="rId1273"/>
+    <hyperlink ref="A641" r:id="rId1274"/>
+    <hyperlink ref="B641" r:id="rId1275"/>
+    <hyperlink ref="A642" r:id="rId1276"/>
+    <hyperlink ref="B642" r:id="rId1277"/>
+    <hyperlink ref="A643" r:id="rId1278"/>
+    <hyperlink ref="B643" r:id="rId1279"/>
+    <hyperlink ref="A644" r:id="rId1280"/>
+    <hyperlink ref="B644" r:id="rId1281"/>
+    <hyperlink ref="A645" r:id="rId1282"/>
+    <hyperlink ref="B645" r:id="rId1283"/>
+    <hyperlink ref="A646" r:id="rId1284"/>
+    <hyperlink ref="B646" r:id="rId1285"/>
+    <hyperlink ref="A647" r:id="rId1286"/>
+    <hyperlink ref="B647" r:id="rId1287"/>
+    <hyperlink ref="A648" r:id="rId1288"/>
+    <hyperlink ref="B648" r:id="rId1289"/>
+    <hyperlink ref="A649" r:id="rId1290"/>
+    <hyperlink ref="B649" r:id="rId1291"/>
+    <hyperlink ref="A650" r:id="rId1292"/>
+    <hyperlink ref="B650" r:id="rId1293"/>
+    <hyperlink ref="A651" r:id="rId1294"/>
+    <hyperlink ref="B651" r:id="rId1295"/>
+    <hyperlink ref="B652" r:id="rId1296"/>
+    <hyperlink ref="A653" r:id="rId1297"/>
+    <hyperlink ref="B653" r:id="rId1298"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
